--- a/variables/Renaming_variables_for_NLSY-97_Religion_24102012_tagset.xlsx
+++ b/variables/Renaming_variables_for_NLSY-97_Religion_24102012_tagset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="165" windowWidth="11415" windowHeight="3090" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="165" windowWidth="11415" windowHeight="3090"/>
   </bookViews>
   <sheets>
     <sheet name="Var rename" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="337">
   <si>
     <t xml:space="preserve">  label R0000100 = "PUBID - YTH ID CODE 1997";</t>
   </si>
@@ -1107,6 +1107,9 @@
   </si>
   <si>
     <t>subject</t>
+  </si>
+  <si>
+    <t>"</t>
   </si>
 </sst>
 </file>
@@ -1530,6 +1533,90 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1560,110 +1647,26 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1975,18 +1978,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U124"/>
+  <dimension ref="A1:AB124"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG34" sqref="AG34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="27" max="27" width="3.28515625" customWidth="1"/>
+    <col min="28" max="28" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="H1" s="1"/>
       <c r="N1" s="1"/>
@@ -1995,1894 +2000,2384 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="str">
+        <f>MID(B2,21,40)</f>
+        <v># DAYS/WK TYP FAM RELIGIOUS 1997";</v>
+      </c>
+      <c r="M2" t="s">
+        <v>311</v>
+      </c>
+      <c r="N2" t="str">
+        <f>MID(B2,9,8)</f>
+        <v>R0323900</v>
+      </c>
+      <c r="O2" t="str">
+        <f>MID(B2,18,80)</f>
+        <v>= "# DAYS/WK TYP FAM RELIGIOUS 1997";</v>
+      </c>
+      <c r="T2" t="str">
+        <f>CONCATENATE($U$1,M2,O2)</f>
+        <v>label famrel_1997= "# DAYS/WK TYP FAM RELIGIOUS 1997";</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB2" t="str">
+        <f>CONCATENATE(AA2,N2,AA2,"=",AA2,M2,AA2,",")</f>
+        <v>"R0323900"="famrel_1997",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="str">
+        <f>MID(B3,21,40)</f>
+        <v># DAYS/WK TYP FAM RELIGIOUS 1998";</v>
+      </c>
+      <c r="M3" t="s">
+        <v>310</v>
+      </c>
+      <c r="N3" t="str">
+        <f>MID(B3,9,8)</f>
+        <v>R2165200</v>
+      </c>
+      <c r="O3" t="str">
+        <f>MID(B3,18,80)</f>
+        <v>= "# DAYS/WK TYP FAM RELIGIOUS 1998";</v>
+      </c>
+      <c r="T3" t="str">
+        <f>CONCATENATE($U$1,M3,O3)</f>
+        <v>label famrel_1998= "# DAYS/WK TYP FAM RELIGIOUS 1998";</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" ref="AB3:AB66" si="0">CONCATENATE(AA3,N3,AA3,"=",AA3,M3,AA3,",")</f>
+        <v>"R2165200"="famrel_1998",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="str">
+        <f>MID(B4,21,40)</f>
+        <v># DAYS/WK TYP FAM RELIGIOUS 1999";</v>
+      </c>
+      <c r="M4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N4" t="str">
+        <f>MID(B4,9,8)</f>
+        <v>R3483100</v>
+      </c>
+      <c r="O4" t="str">
+        <f>MID(B4,18,80)</f>
+        <v>= "# DAYS/WK TYP FAM RELIGIOUS 1999";</v>
+      </c>
+      <c r="T4" t="str">
+        <f>CONCATENATE($U$1,M4,O4)</f>
+        <v>label famrel_1999= "# DAYS/WK TYP FAM RELIGIOUS 1999";</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="0"/>
+        <v>"R3483100"="famrel_1999",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="str">
+        <f>MID(B5,21,40)</f>
+        <v># DAYS/WK TYP FAM RELIGIOUS 2000";</v>
+      </c>
+      <c r="M5" t="s">
+        <v>308</v>
+      </c>
+      <c r="N5" t="str">
+        <f>MID(B5,9,8)</f>
+        <v>R4881300</v>
+      </c>
+      <c r="O5" t="str">
+        <f>MID(B5,18,80)</f>
+        <v>= "# DAYS/WK TYP FAM RELIGIOUS 2000";</v>
+      </c>
+      <c r="T5" t="str">
+        <f>CONCATENATE($U$1,M5,O5)</f>
+        <v>label famrel_2000= "# DAYS/WK TYP FAM RELIGIOUS 2000";</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="0"/>
+        <v>"R4881300"="famrel_2000",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" t="str">
+        <f>MID(B6,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 1997";</v>
+      </c>
+      <c r="M6" t="s">
+        <v>252</v>
+      </c>
+      <c r="N6" t="str">
+        <f>MID(B6,9,8)</f>
+        <v>R1193900</v>
+      </c>
+      <c r="O6" t="str">
+        <f>MID(B6,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 1997";</v>
+      </c>
+      <c r="T6" t="str">
+        <f>CONCATENATE($U$1,M6,O6)</f>
+        <v>label agemon_1997= "CV_AGE(MONTHS)_INT_DATE 1997";</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="0"/>
+        <v>"R1193900"="agemon_1997",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" t="str">
+        <f>MID(B7,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 1998";</v>
+      </c>
+      <c r="M7" t="s">
+        <v>253</v>
+      </c>
+      <c r="N7" t="str">
+        <f>MID(B7,9,8)</f>
+        <v>R2553400</v>
+      </c>
+      <c r="O7" t="str">
+        <f>MID(B7,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 1998";</v>
+      </c>
+      <c r="T7" t="str">
+        <f>CONCATENATE($U$1,M7,O7)</f>
+        <v>label agemon_1998= "CV_AGE(MONTHS)_INT_DATE 1998";</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="0"/>
+        <v>"R2553400"="agemon_1998",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" t="str">
+        <f>MID(B8,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 1999";</v>
+      </c>
+      <c r="M8" t="s">
+        <v>254</v>
+      </c>
+      <c r="N8" t="str">
+        <f>MID(B8,9,8)</f>
+        <v>R3876200</v>
+      </c>
+      <c r="O8" t="str">
+        <f>MID(B8,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 1999";</v>
+      </c>
+      <c r="T8" t="str">
+        <f>CONCATENATE($U$1,M8,O8)</f>
+        <v>label agemon_1999= "CV_AGE(MONTHS)_INT_DATE 1999";</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="0"/>
+        <v>"R3876200"="agemon_1999",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" t="str">
+        <f>MID(B9,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2000";</v>
+      </c>
+      <c r="M9" t="s">
+        <v>255</v>
+      </c>
+      <c r="N9" t="str">
+        <f>MID(B9,9,8)</f>
+        <v>R5453600</v>
+      </c>
+      <c r="O9" t="str">
+        <f>MID(B9,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2000";</v>
+      </c>
+      <c r="T9" t="str">
+        <f>CONCATENATE($U$1,M9,O9)</f>
+        <v>label agemon_2000= "CV_AGE(MONTHS)_INT_DATE 2000";</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="0"/>
+        <v>"R5453600"="agemon_2000",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" t="str">
+        <f>MID(B10,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2001";</v>
+      </c>
+      <c r="M10" t="s">
+        <v>256</v>
+      </c>
+      <c r="N10" t="str">
+        <f>MID(B10,9,8)</f>
+        <v>R7215900</v>
+      </c>
+      <c r="O10" t="str">
+        <f>MID(B10,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2001";</v>
+      </c>
+      <c r="T10" t="str">
+        <f>CONCATENATE($U$1,M10,O10)</f>
+        <v>label agemon_2001= "CV_AGE(MONTHS)_INT_DATE 2001";</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="0"/>
+        <v>"R7215900"="agemon_2001",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" t="str">
+        <f>MID(B11,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2002";</v>
+      </c>
+      <c r="M11" t="s">
+        <v>257</v>
+      </c>
+      <c r="N11" t="str">
+        <f>MID(B11,9,8)</f>
+        <v>S1531300</v>
+      </c>
+      <c r="O11" t="str">
+        <f>MID(B11,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2002";</v>
+      </c>
+      <c r="T11" t="str">
+        <f>CONCATENATE($U$1,M11,O11)</f>
+        <v>label agemon_2002= "CV_AGE(MONTHS)_INT_DATE 2002";</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="0"/>
+        <v>"S1531300"="agemon_2002",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" t="str">
+        <f>MID(B12,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2003";</v>
+      </c>
+      <c r="M12" t="s">
+        <v>258</v>
+      </c>
+      <c r="N12" t="str">
+        <f>MID(B12,9,8)</f>
+        <v>S2000900</v>
+      </c>
+      <c r="O12" t="str">
+        <f>MID(B12,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2003";</v>
+      </c>
+      <c r="T12" t="str">
+        <f>CONCATENATE($U$1,M12,O12)</f>
+        <v>label agemon_2003= "CV_AGE(MONTHS)_INT_DATE 2003";</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="0"/>
+        <v>"S2000900"="agemon_2003",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" t="str">
+        <f>MID(B13,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2004";</v>
+      </c>
+      <c r="M13" t="s">
+        <v>259</v>
+      </c>
+      <c r="N13" t="str">
+        <f>MID(B13,9,8)</f>
+        <v>S3801000</v>
+      </c>
+      <c r="O13" t="str">
+        <f>MID(B13,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2004";</v>
+      </c>
+      <c r="T13" t="str">
+        <f>CONCATENATE($U$1,M13,O13)</f>
+        <v>label agemon_2004= "CV_AGE(MONTHS)_INT_DATE 2004";</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="0"/>
+        <v>"S3801000"="agemon_2004",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" t="str">
+        <f>MID(B14,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2005";</v>
+      </c>
+      <c r="M14" t="s">
+        <v>260</v>
+      </c>
+      <c r="N14" t="str">
+        <f>MID(B14,9,8)</f>
+        <v>S5400900</v>
+      </c>
+      <c r="O14" t="str">
+        <f>MID(B14,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2005";</v>
+      </c>
+      <c r="T14" t="str">
+        <f>CONCATENATE($U$1,M14,O14)</f>
+        <v>label agemon_2005= "CV_AGE(MONTHS)_INT_DATE 2005";</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="0"/>
+        <v>"S5400900"="agemon_2005",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" t="str">
+        <f>MID(B15,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2006";</v>
+      </c>
+      <c r="M15" t="s">
+        <v>261</v>
+      </c>
+      <c r="N15" t="str">
+        <f>MID(B15,9,8)</f>
+        <v>S7501100</v>
+      </c>
+      <c r="O15" t="str">
+        <f>MID(B15,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2006";</v>
+      </c>
+      <c r="T15" t="str">
+        <f>CONCATENATE($U$1,M15,O15)</f>
+        <v>label agemon_2006= "CV_AGE(MONTHS)_INT_DATE 2006";</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="0"/>
+        <v>"S7501100"="agemon_2006",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" t="str">
+        <f>MID(B16,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2007";</v>
+      </c>
+      <c r="M16" t="s">
+        <v>262</v>
+      </c>
+      <c r="N16" t="str">
+        <f>MID(B16,9,8)</f>
+        <v>T0008400</v>
+      </c>
+      <c r="O16" t="str">
+        <f>MID(B16,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2007";</v>
+      </c>
+      <c r="T16" t="str">
+        <f>CONCATENATE($U$1,M16,O16)</f>
+        <v>label agemon_2007= "CV_AGE(MONTHS)_INT_DATE 2007";</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="0"/>
+        <v>"T0008400"="agemon_2007",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" t="str">
+        <f>MID(B17,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2008";</v>
+      </c>
+      <c r="M17" t="s">
+        <v>263</v>
+      </c>
+      <c r="N17" t="str">
+        <f>MID(B17,9,8)</f>
+        <v>T2011000</v>
+      </c>
+      <c r="O17" t="str">
+        <f>MID(B17,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2008";</v>
+      </c>
+      <c r="T17" t="str">
+        <f>CONCATENATE($U$1,M17,O17)</f>
+        <v>label agemon_2008= "CV_AGE(MONTHS)_INT_DATE 2008";</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="0"/>
+        <v>"T2011000"="agemon_2008",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" t="str">
+        <f>MID(B18,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2009";</v>
+      </c>
+      <c r="M18" t="s">
+        <v>264</v>
+      </c>
+      <c r="N18" t="str">
+        <f>MID(B18,9,8)</f>
+        <v>T3601400</v>
+      </c>
+      <c r="O18" t="str">
+        <f>MID(B18,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2009";</v>
+      </c>
+      <c r="T18" t="str">
+        <f>CONCATENATE($U$1,M18,O18)</f>
+        <v>label agemon_2009= "CV_AGE(MONTHS)_INT_DATE 2009";</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="0"/>
+        <v>"T3601400"="agemon_2009",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" t="str">
+        <f>MID(B19,21,40)</f>
+        <v>CV_AGE(MONTHS)_INT_DATE 2010";</v>
+      </c>
+      <c r="M19" t="s">
+        <v>265</v>
+      </c>
+      <c r="N19" t="str">
+        <f>MID(B19,9,8)</f>
+        <v>T5201300</v>
+      </c>
+      <c r="O19" t="str">
+        <f>MID(B19,18,80)</f>
+        <v>= "CV_AGE(MONTHS)_INT_DATE 2010";</v>
+      </c>
+      <c r="T19" t="str">
+        <f>CONCATENATE($U$1,M19,O19)</f>
+        <v>label agemon_2010= "CV_AGE(MONTHS)_INT_DATE 2010";</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="0"/>
+        <v>"T5201300"="agemon_2010",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" t="str">
+        <f>MID(B20,21,40)</f>
+        <v>CV_AGE_INT_DATE 1997";</v>
+      </c>
+      <c r="M20" t="s">
+        <v>266</v>
+      </c>
+      <c r="N20" t="str">
+        <f>MID(B20,9,8)</f>
+        <v>R1194100</v>
+      </c>
+      <c r="O20" t="str">
+        <f>MID(B20,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 1997";</v>
+      </c>
+      <c r="T20" t="str">
+        <f>CONCATENATE($U$1,M20,O20)</f>
+        <v>label ageyear_1997= "CV_AGE_INT_DATE 1997";</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="0"/>
+        <v>"R1194100"="ageyear_1997",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" t="str">
+        <f>MID(B21,21,40)</f>
+        <v>CV_AGE_INT_DATE 1998";</v>
+      </c>
+      <c r="M21" t="s">
+        <v>267</v>
+      </c>
+      <c r="N21" t="str">
+        <f>MID(B21,9,8)</f>
+        <v>R2553500</v>
+      </c>
+      <c r="O21" t="str">
+        <f>MID(B21,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 1998";</v>
+      </c>
+      <c r="T21" t="str">
+        <f>CONCATENATE($U$1,M21,O21)</f>
+        <v>label ageyear_1998= "CV_AGE_INT_DATE 1998";</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="0"/>
+        <v>"R2553500"="ageyear_1998",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" t="str">
+        <f>MID(B22,21,40)</f>
+        <v>CV_AGE_INT_DATE 1999";</v>
+      </c>
+      <c r="M22" t="s">
+        <v>268</v>
+      </c>
+      <c r="N22" t="str">
+        <f>MID(B22,9,8)</f>
+        <v>R3876300</v>
+      </c>
+      <c r="O22" t="str">
+        <f>MID(B22,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 1999";</v>
+      </c>
+      <c r="T22" t="str">
+        <f>CONCATENATE($U$1,M22,O22)</f>
+        <v>label ageyear_1999= "CV_AGE_INT_DATE 1999";</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="0"/>
+        <v>"R3876300"="ageyear_1999",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" t="str">
+        <f>MID(B23,21,40)</f>
+        <v>CV_AGE_INT_DATE 2000";</v>
+      </c>
+      <c r="M23" t="s">
+        <v>269</v>
+      </c>
+      <c r="N23" t="str">
+        <f>MID(B23,9,8)</f>
+        <v>R5453700</v>
+      </c>
+      <c r="O23" t="str">
+        <f>MID(B23,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2000";</v>
+      </c>
+      <c r="T23" t="str">
+        <f>CONCATENATE($U$1,M23,O23)</f>
+        <v>label ageyear_2000= "CV_AGE_INT_DATE 2000";</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="0"/>
+        <v>"R5453700"="ageyear_2000",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" t="str">
+        <f>MID(B24,21,40)</f>
+        <v>CV_AGE_INT_DATE 2001";</v>
+      </c>
+      <c r="M24" t="s">
+        <v>270</v>
+      </c>
+      <c r="N24" t="str">
+        <f>MID(B24,9,8)</f>
+        <v>R7216000</v>
+      </c>
+      <c r="O24" t="str">
+        <f>MID(B24,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2001";</v>
+      </c>
+      <c r="T24" t="str">
+        <f>CONCATENATE($U$1,M24,O24)</f>
+        <v>label ageyear_2001= "CV_AGE_INT_DATE 2001";</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="0"/>
+        <v>"R7216000"="ageyear_2001",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" t="str">
+        <f>MID(B25,21,40)</f>
+        <v>CV_AGE_INT_DATE 2002";</v>
+      </c>
+      <c r="M25" t="s">
+        <v>271</v>
+      </c>
+      <c r="N25" t="str">
+        <f>MID(B25,9,8)</f>
+        <v>S1531400</v>
+      </c>
+      <c r="O25" t="str">
+        <f>MID(B25,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2002";</v>
+      </c>
+      <c r="T25" t="str">
+        <f>CONCATENATE($U$1,M25,O25)</f>
+        <v>label ageyear_2002= "CV_AGE_INT_DATE 2002";</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="0"/>
+        <v>"S1531400"="ageyear_2002",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" t="str">
+        <f>MID(B26,21,40)</f>
+        <v>CV_AGE_INT_DATE 2003";</v>
+      </c>
+      <c r="M26" t="s">
+        <v>272</v>
+      </c>
+      <c r="N26" t="str">
+        <f>MID(B26,9,8)</f>
+        <v>S2001000</v>
+      </c>
+      <c r="O26" t="str">
+        <f>MID(B26,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2003";</v>
+      </c>
+      <c r="T26" t="str">
+        <f>CONCATENATE($U$1,M26,O26)</f>
+        <v>label ageyear_2003= "CV_AGE_INT_DATE 2003";</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="0"/>
+        <v>"S2001000"="ageyear_2003",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" t="str">
+        <f>MID(B27,21,40)</f>
+        <v>CV_AGE_INT_DATE 2004";</v>
+      </c>
+      <c r="M27" t="s">
+        <v>273</v>
+      </c>
+      <c r="N27" t="str">
+        <f>MID(B27,9,8)</f>
+        <v>S3801100</v>
+      </c>
+      <c r="O27" t="str">
+        <f>MID(B27,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2004";</v>
+      </c>
+      <c r="T27" t="str">
+        <f>CONCATENATE($U$1,M27,O27)</f>
+        <v>label ageyear_2004= "CV_AGE_INT_DATE 2004";</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="0"/>
+        <v>"S3801100"="ageyear_2004",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" t="str">
+        <f>MID(B28,21,40)</f>
+        <v>CV_AGE_INT_DATE 2005";</v>
+      </c>
+      <c r="M28" t="s">
+        <v>274</v>
+      </c>
+      <c r="N28" t="str">
+        <f>MID(B28,9,8)</f>
+        <v>S5401000</v>
+      </c>
+      <c r="O28" t="str">
+        <f>MID(B28,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2005";</v>
+      </c>
+      <c r="T28" t="str">
+        <f>CONCATENATE($U$1,M28,O28)</f>
+        <v>label ageyear_2005= "CV_AGE_INT_DATE 2005";</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB28" t="str">
+        <f t="shared" si="0"/>
+        <v>"S5401000"="ageyear_2005",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" t="str">
+        <f>MID(B29,21,40)</f>
+        <v>CV_AGE_INT_DATE 2006";</v>
+      </c>
+      <c r="M29" t="s">
+        <v>275</v>
+      </c>
+      <c r="N29" t="str">
+        <f>MID(B29,9,8)</f>
+        <v>S7501200</v>
+      </c>
+      <c r="O29" t="str">
+        <f>MID(B29,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2006";</v>
+      </c>
+      <c r="T29" t="str">
+        <f>CONCATENATE($U$1,M29,O29)</f>
+        <v>label ageyear_2006= "CV_AGE_INT_DATE 2006";</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB29" t="str">
+        <f t="shared" si="0"/>
+        <v>"S7501200"="ageyear_2006",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>165</v>
+      </c>
+      <c r="H30" t="str">
+        <f>MID(B30,21,40)</f>
+        <v>CV_AGE_INT_DATE 2007";</v>
+      </c>
+      <c r="M30" t="s">
+        <v>276</v>
+      </c>
+      <c r="N30" t="str">
+        <f>MID(B30,9,8)</f>
+        <v>T0008500</v>
+      </c>
+      <c r="O30" t="str">
+        <f>MID(B30,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2007";</v>
+      </c>
+      <c r="T30" t="str">
+        <f>CONCATENATE($U$1,M30,O30)</f>
+        <v>label ageyear_2007= "CV_AGE_INT_DATE 2007";</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB30" t="str">
+        <f t="shared" si="0"/>
+        <v>"T0008500"="ageyear_2007",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" t="str">
+        <f>MID(B31,21,40)</f>
+        <v>CV_AGE_INT_DATE 2008";</v>
+      </c>
+      <c r="M31" t="s">
+        <v>277</v>
+      </c>
+      <c r="N31" t="str">
+        <f>MID(B31,9,8)</f>
+        <v>T2011100</v>
+      </c>
+      <c r="O31" t="str">
+        <f>MID(B31,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2008";</v>
+      </c>
+      <c r="T31" t="str">
+        <f>CONCATENATE($U$1,M31,O31)</f>
+        <v>label ageyear_2008= "CV_AGE_INT_DATE 2008";</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB31" t="str">
+        <f t="shared" si="0"/>
+        <v>"T2011100"="ageyear_2008",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" t="str">
+        <f>MID(B32,21,40)</f>
+        <v>CV_AGE_INT_DATE 2009";</v>
+      </c>
+      <c r="M32" t="s">
+        <v>278</v>
+      </c>
+      <c r="N32" t="str">
+        <f>MID(B32,9,8)</f>
+        <v>T3601500</v>
+      </c>
+      <c r="O32" t="str">
+        <f>MID(B32,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2009";</v>
+      </c>
+      <c r="T32" t="str">
+        <f>CONCATENATE($U$1,M32,O32)</f>
+        <v>label ageyear_2009= "CV_AGE_INT_DATE 2009";</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB32" t="str">
+        <f t="shared" si="0"/>
+        <v>"T3601500"="ageyear_2009",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" t="str">
+        <f>MID(B33,21,40)</f>
+        <v>CV_AGE_INT_DATE 2010";</v>
+      </c>
+      <c r="M33" t="s">
+        <v>279</v>
+      </c>
+      <c r="N33" t="str">
+        <f>MID(B33,9,8)</f>
+        <v>T5201400</v>
+      </c>
+      <c r="O33" t="str">
+        <f>MID(B33,18,80)</f>
+        <v>= "CV_AGE_INT_DATE 2010";</v>
+      </c>
+      <c r="T33" t="str">
+        <f>CONCATENATE($U$1,M33,O33)</f>
+        <v>label ageyear_2010= "CV_AGE_INT_DATE 2010";</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB33" t="str">
+        <f t="shared" si="0"/>
+        <v>"T5201400"="ageyear_2010",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" t="str">
+        <f>MID(B34,21,40)</f>
+        <v>CV_SAMPLE_TYPE 1997";</v>
+      </c>
+      <c r="M34" t="s">
+        <v>196</v>
+      </c>
+      <c r="N34" t="str">
+        <f>MID(B34,9,8)</f>
+        <v>R1235800</v>
+      </c>
+      <c r="O34" t="str">
+        <f>MID(B34,18,80)</f>
+        <v>= "CV_SAMPLE_TYPE 1997";</v>
+      </c>
+      <c r="T34" t="str">
+        <f>CONCATENATE($U$1,M34,O34)</f>
+        <v>label samplesype= "CV_SAMPLE_TYPE 1997";</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB34" t="str">
+        <f t="shared" si="0"/>
+        <v>"R1235800"="samplesype",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="str">
+        <f>MID(B35,21,40)</f>
+        <v>GOD NOTHING TO DO HAPPENS TO R 2002";</v>
+      </c>
+      <c r="M35" t="s">
+        <v>305</v>
+      </c>
+      <c r="N35" t="str">
+        <f>MID(B35,9,8)</f>
+        <v>S0919700</v>
+      </c>
+      <c r="O35" t="str">
+        <f>MID(B35,18,80)</f>
+        <v>= "GOD NOTHING TO DO HAPPENS TO R 2002";</v>
+      </c>
+      <c r="T35" t="str">
+        <f>CONCATENATE($U$1,M35,O35)</f>
+        <v>label todo_2002= "GOD NOTHING TO DO HAPPENS TO R 2002";</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB35" t="str">
+        <f t="shared" si="0"/>
+        <v>"S0919700"="todo_2002",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="str">
+        <f>MID(B36,21,40)</f>
+        <v>GOD NOTHING TO DO HAPPENS TO R 2005";</v>
+      </c>
+      <c r="M36" t="s">
+        <v>306</v>
+      </c>
+      <c r="N36" t="str">
+        <f>MID(B36,9,8)</f>
+        <v>S6317100</v>
+      </c>
+      <c r="O36" t="str">
+        <f>MID(B36,18,80)</f>
+        <v>= "GOD NOTHING TO DO HAPPENS TO R 2005";</v>
+      </c>
+      <c r="T36" t="str">
+        <f>CONCATENATE($U$1,M36,O36)</f>
+        <v>label todo_2005= "GOD NOTHING TO DO HAPPENS TO R 2005";</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB36" t="str">
+        <f t="shared" si="0"/>
+        <v>"S6317100"="todo_2005",</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="str">
+        <f>MID(B37,21,40)</f>
+        <v>GOD NOTHING TO DO HAPPENS TO R 2008";</v>
+      </c>
+      <c r="M37" t="s">
+        <v>307</v>
+      </c>
+      <c r="N37" t="str">
+        <f>MID(B37,9,8)</f>
+        <v>T2782200</v>
+      </c>
+      <c r="O37" t="str">
+        <f>MID(B37,18,80)</f>
+        <v>= "GOD NOTHING TO DO HAPPENS TO R 2008";</v>
+      </c>
+      <c r="T37" t="str">
+        <f>CONCATENATE($U$1,M37,O37)</f>
+        <v>label todo_2008= "GOD NOTHING TO DO HAPPENS TO R 2008";</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB37" t="str">
+        <f t="shared" si="0"/>
+        <v>"T2782200"="todo_2008",</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="str">
+        <f>MID(B38,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
+      </c>
+      <c r="M38" t="s">
+        <v>280</v>
+      </c>
+      <c r="N38" t="str">
+        <f>MID(B38,9,8)</f>
+        <v>R4893400</v>
+      </c>
+      <c r="O38" t="str">
+        <f>MID(B38,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
+      </c>
+      <c r="T38" t="str">
+        <f>CONCATENATE($U$1,M38,O38)</f>
+        <v>label attend_2000= "HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB38" t="str">
+        <f t="shared" si="0"/>
+        <v>"R4893400"="attend_2000",</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="str">
+        <f>MID(B39,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
+      </c>
+      <c r="M39" t="s">
+        <v>281</v>
+      </c>
+      <c r="N39" t="str">
+        <f>MID(B39,9,8)</f>
+        <v>R6520100</v>
+      </c>
+      <c r="O39" t="str">
+        <f>MID(B39,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
+      </c>
+      <c r="T39" t="str">
+        <f>CONCATENATE($U$1,M39,O39)</f>
+        <v>label attend_2001= "HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB39" t="str">
+        <f t="shared" si="0"/>
+        <v>"R6520100"="attend_2001",</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>27</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="str">
+        <f>MID(B40,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
+      </c>
+      <c r="M40" t="s">
+        <v>282</v>
+      </c>
+      <c r="N40" t="str">
+        <f>MID(B40,9,8)</f>
+        <v>S0919300</v>
+      </c>
+      <c r="O40" t="str">
+        <f>MID(B40,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
+      </c>
+      <c r="T40" t="str">
+        <f>CONCATENATE($U$1,M40,O40)</f>
+        <v>label attend_2002= "HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB40" t="str">
+        <f t="shared" si="0"/>
+        <v>"S0919300"="attend_2002",</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="str">
+        <f>MID(B41,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
+      </c>
+      <c r="M41" t="s">
+        <v>283</v>
+      </c>
+      <c r="N41" t="str">
+        <f>MID(B41,9,8)</f>
+        <v>S2987800</v>
+      </c>
+      <c r="O41" t="str">
+        <f>MID(B41,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
+      </c>
+      <c r="T41" t="str">
+        <f>CONCATENATE($U$1,M41,O41)</f>
+        <v>label attend_2003= "HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB41" t="str">
+        <f t="shared" si="0"/>
+        <v>"S2987800"="attend_2003",</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" t="str">
+        <f>MID(B42,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
+      </c>
+      <c r="M42" t="s">
+        <v>284</v>
+      </c>
+      <c r="N42" t="str">
+        <f>MID(B42,9,8)</f>
+        <v>S4681700</v>
+      </c>
+      <c r="O42" t="str">
+        <f>MID(B42,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
+      </c>
+      <c r="T42" t="str">
+        <f>CONCATENATE($U$1,M42,O42)</f>
+        <v>label attend_2004= "HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB42" t="str">
+        <f t="shared" si="0"/>
+        <v>"S4681700"="attend_2004",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="str">
+        <f>MID(B43,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
+      </c>
+      <c r="M43" t="s">
+        <v>285</v>
+      </c>
+      <c r="N43" t="str">
+        <f>MID(B43,9,8)</f>
+        <v>S6316700</v>
+      </c>
+      <c r="O43" t="str">
+        <f>MID(B43,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
+      </c>
+      <c r="T43" t="str">
+        <f>CONCATENATE($U$1,M43,O43)</f>
+        <v>label attend_2005= "HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB43" t="str">
+        <f t="shared" si="0"/>
+        <v>"S6316700"="attend_2005",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="str">
+        <f>MID(B44,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
+      </c>
+      <c r="M44" t="s">
+        <v>286</v>
+      </c>
+      <c r="N44" t="str">
+        <f>MID(B44,9,8)</f>
+        <v>S8331500</v>
+      </c>
+      <c r="O44" t="str">
+        <f>MID(B44,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
+      </c>
+      <c r="T44" t="str">
+        <f>CONCATENATE($U$1,M44,O44)</f>
+        <v>label attend_2006= "HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB44" t="str">
+        <f t="shared" si="0"/>
+        <v>"S8331500"="attend_2006",</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" t="str">
+        <f>MID(B45,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
+      </c>
+      <c r="M45" t="s">
+        <v>287</v>
+      </c>
+      <c r="N45" t="str">
+        <f>MID(B45,9,8)</f>
+        <v>T0739400</v>
+      </c>
+      <c r="O45" t="str">
+        <f>MID(B45,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
+      </c>
+      <c r="T45" t="str">
+        <f>CONCATENATE($U$1,M45,O45)</f>
+        <v>label attend_2007= "HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB45" t="str">
+        <f t="shared" si="0"/>
+        <v>"T0739400"="attend_2007",</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" t="str">
+        <f>MID(B46,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
+      </c>
+      <c r="M46" t="s">
+        <v>288</v>
+      </c>
+      <c r="N46" t="str">
+        <f>MID(B46,9,8)</f>
+        <v>T2781700</v>
+      </c>
+      <c r="O46" t="str">
+        <f>MID(B46,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
+      </c>
+      <c r="T46" t="str">
+        <f>CONCATENATE($U$1,M46,O46)</f>
+        <v>label attend_2008= "HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB46" t="str">
+        <f t="shared" si="0"/>
+        <v>"T2781700"="attend_2008",</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>171</v>
+      </c>
+      <c r="H47" t="str">
+        <f>MID(B47,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
+      </c>
+      <c r="M47" t="s">
+        <v>289</v>
+      </c>
+      <c r="N47" t="str">
+        <f>MID(B47,9,8)</f>
+        <v>T4495000</v>
+      </c>
+      <c r="O47" t="str">
+        <f>MID(B47,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
+      </c>
+      <c r="T47" t="str">
+        <f>CONCATENATE($U$1,M47,O47)</f>
+        <v>label attend_2009= "HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB47" t="str">
+        <f t="shared" si="0"/>
+        <v>"T4495000"="attend_2009",</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
+        <v>172</v>
+      </c>
+      <c r="H48" t="str">
+        <f>MID(B48,21,40)</f>
+        <v>HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
+      </c>
+      <c r="M48" t="s">
+        <v>290</v>
+      </c>
+      <c r="N48" t="str">
+        <f>MID(B48,9,8)</f>
+        <v>T6143400</v>
+      </c>
+      <c r="O48" t="str">
+        <f>MID(B48,18,80)</f>
+        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
+      </c>
+      <c r="T48" t="str">
+        <f>CONCATENATE($U$1,M48,O48)</f>
+        <v>label attend_2010= "HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB48" t="str">
+        <f t="shared" si="0"/>
+        <v>"T6143400"="attend_2010",</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" t="str">
+        <f>MID(B49,21,40)</f>
+        <v>KEY!BDATE M/Y (SYMBOL) 1997";</v>
+      </c>
+      <c r="M49" t="s">
+        <v>47</v>
+      </c>
+      <c r="N49" t="str">
+        <f>MID(B49,9,8)</f>
+        <v>R0536401</v>
+      </c>
+      <c r="O49" t="str">
+        <f>MID(B49,18,80)</f>
+        <v>= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
+      </c>
+      <c r="T49" t="str">
+        <f>CONCATENATE($U$1,M49,O49)</f>
+        <v>label bmonth= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB49" t="str">
+        <f t="shared" si="0"/>
+        <v>"R0536401"="bmonth",</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" t="str">
+        <f>MID(B50,21,40)</f>
+        <v>KEY!BDATE M/Y (SYMBOL) 1997";</v>
+      </c>
+      <c r="M50" t="s">
+        <v>48</v>
+      </c>
+      <c r="N50" t="str">
+        <f>MID(B50,9,8)</f>
+        <v>R0536402</v>
+      </c>
+      <c r="O50" t="str">
+        <f>MID(B50,18,80)</f>
+        <v>= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
+      </c>
+      <c r="T50" t="str">
+        <f>CONCATENATE($U$1,M50,O50)</f>
+        <v>label byear= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB50" t="str">
+        <f t="shared" si="0"/>
+        <v>"R0536402"="byear",</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" t="str">
+        <f>MID(B51,21,40)</f>
+        <v>KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
+      </c>
+      <c r="M51" t="s">
+        <v>183</v>
+      </c>
+      <c r="N51" t="str">
+        <f>MID(B51,9,8)</f>
+        <v>R1482600</v>
+      </c>
+      <c r="O51" t="str">
+        <f>MID(B51,18,80)</f>
+        <v>= "KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
+      </c>
+      <c r="T51" t="str">
+        <f>CONCATENATE($U$1,M51,O51)</f>
+        <v>label race= "KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB51" t="str">
+        <f t="shared" si="0"/>
+        <v>"R1482600"="race",</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" t="str">
+        <f>MID(B52,21,40)</f>
+        <v>KEY!SEX (SYMBOL) 1997";</v>
+      </c>
+      <c r="M52" t="s">
+        <v>46</v>
+      </c>
+      <c r="N52" t="str">
+        <f>MID(B52,9,8)</f>
+        <v>R0536300</v>
+      </c>
+      <c r="O52" t="str">
+        <f>MID(B52,18,80)</f>
+        <v>= "KEY!SEX (SYMBOL) 1997";</v>
+      </c>
+      <c r="T52" t="str">
+        <f>CONCATENATE($U$1,M52,O52)</f>
+        <v>label sex= "KEY!SEX (SYMBOL) 1997";</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB52" t="str">
+        <f t="shared" si="0"/>
+        <v>"R0536300"="sex",</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+      <c r="H53" t="str">
+        <f>MID(B53,21,40)</f>
+        <v>PR SP/PART CURR RELIG PREF? 1997";</v>
+      </c>
+      <c r="M53" t="s">
+        <v>207</v>
+      </c>
+      <c r="N53" t="str">
+        <f>MID(B53,9,8)</f>
+        <v>R0555800</v>
+      </c>
+      <c r="O53" t="str">
+        <f>MID(B53,18,80)</f>
+        <v>= "PR SP/PART CURR RELIG PREF? 1997";</v>
+      </c>
+      <c r="T53" t="str">
+        <f>CONCATENATE($U$1,M53,O53)</f>
+        <v>label psrelpref= "PR SP/PART CURR RELIG PREF? 1997";</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB53" t="str">
+        <f t="shared" si="0"/>
+        <v>"R0555800"="psrelpref",</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H33" si="0">MID(B2,21,40)</f>
+      <c r="H54" t="str">
+        <f>MID(B54,21,40)</f>
         <v>PUBID - YTH ID CODE 1997";</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M54" t="s">
         <v>44</v>
       </c>
-      <c r="N2" t="str">
-        <f t="shared" ref="N2:N33" si="1">MID(B2,9,8)</f>
+      <c r="N54" t="str">
+        <f>MID(B54,9,8)</f>
         <v>R0000100</v>
       </c>
-      <c r="O2" t="str">
-        <f t="shared" ref="O2:O33" si="2">MID(B2,18,80)</f>
+      <c r="O54" t="str">
+        <f>MID(B54,18,80)</f>
         <v>= "PUBID - YTH ID CODE 1997";</v>
       </c>
-      <c r="T2" t="str">
-        <f t="shared" ref="T2:T33" si="3">CONCATENATE($U$1,M2,O2)</f>
+      <c r="T54" t="str">
+        <f>CONCATENATE($U$1,M54,O54)</f>
         <v>label id= "PUBID - YTH ID CODE 1997";</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" t="str">
+      <c r="AA54" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB54" t="str">
         <f t="shared" si="0"/>
-        <v># DAYS/WK TYP FAM RELIGIOUS 1997";</v>
-      </c>
-      <c r="M3" t="s">
-        <v>311</v>
-      </c>
-      <c r="N3" t="str">
+        <v>"R0000100"="id",</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" t="str">
+        <f>MID(B55,21,40)</f>
+        <v>R ASKS GOD HELP MAKE DECISIONS 2002";</v>
+      </c>
+      <c r="M55" t="s">
+        <v>291</v>
+      </c>
+      <c r="N55" t="str">
+        <f>MID(B55,9,8)</f>
+        <v>S0919600</v>
+      </c>
+      <c r="O55" t="str">
+        <f>MID(B55,18,80)</f>
+        <v>= "R ASKS GOD HELP MAKE DECISIONS 2002";</v>
+      </c>
+      <c r="T55" t="str">
+        <f>CONCATENATE($U$1,M55,O55)</f>
+        <v>label decide_2002= "R ASKS GOD HELP MAKE DECISIONS 2002";</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB55" t="str">
+        <f t="shared" si="0"/>
+        <v>"S0919600"="decide_2002",</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" t="str">
+        <f>MID(B56,21,40)</f>
+        <v>R ASKS GOD HELP MAKE DECISIONS 2005";</v>
+      </c>
+      <c r="M56" t="s">
+        <v>292</v>
+      </c>
+      <c r="N56" t="str">
+        <f>MID(B56,9,8)</f>
+        <v>S6317000</v>
+      </c>
+      <c r="O56" t="str">
+        <f>MID(B56,18,80)</f>
+        <v>= "R ASKS GOD HELP MAKE DECISIONS 2005";</v>
+      </c>
+      <c r="T56" t="str">
+        <f>CONCATENATE($U$1,M56,O56)</f>
+        <v>label decide_2005= "R ASKS GOD HELP MAKE DECISIONS 2005";</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB56" t="str">
+        <f t="shared" si="0"/>
+        <v>"S6317000"="decide_2005",</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" t="str">
+        <f>MID(B57,21,40)</f>
+        <v>R ASKS GOD HELP MAKE DECISIONS 2008";</v>
+      </c>
+      <c r="M57" t="s">
+        <v>293</v>
+      </c>
+      <c r="N57" t="str">
+        <f>MID(B57,9,8)</f>
+        <v>T2782100</v>
+      </c>
+      <c r="O57" t="str">
+        <f>MID(B57,18,80)</f>
+        <v>= "R ASKS GOD HELP MAKE DECISIONS 2008";</v>
+      </c>
+      <c r="T57" t="str">
+        <f>CONCATENATE($U$1,M57,O57)</f>
+        <v>label decide_2008= "R ASKS GOD HELP MAKE DECISIONS 2008";</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB57" t="str">
+        <f t="shared" si="0"/>
+        <v>"T2782100"="decide_2008",</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" t="str">
+        <f>MID(B58,21,40)</f>
+        <v>R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
+      </c>
+      <c r="M58" t="s">
+        <v>294</v>
+      </c>
+      <c r="N58" t="str">
+        <f>MID(B58,9,8)</f>
+        <v>S0919500</v>
+      </c>
+      <c r="O58" t="str">
+        <f>MID(B58,18,80)</f>
+        <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
+      </c>
+      <c r="T58" t="str">
+        <f>CONCATENATE($U$1,M58,O58)</f>
+        <v>label obey_2002= "R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB58" t="str">
+        <f t="shared" si="0"/>
+        <v>"S0919500"="obey_2002",</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" t="str">
+        <f>MID(B59,21,40)</f>
+        <v>R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
+      </c>
+      <c r="M59" t="s">
+        <v>295</v>
+      </c>
+      <c r="N59" t="str">
+        <f>MID(B59,9,8)</f>
+        <v>S6316900</v>
+      </c>
+      <c r="O59" t="str">
+        <f>MID(B59,18,80)</f>
+        <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
+      </c>
+      <c r="T59" t="str">
+        <f>CONCATENATE($U$1,M59,O59)</f>
+        <v>label obey_2005= "R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB59" t="str">
+        <f t="shared" si="0"/>
+        <v>"S6316900"="obey_2005",</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" t="str">
+        <f>MID(B60,21,40)</f>
+        <v>R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
+      </c>
+      <c r="M60" t="s">
+        <v>296</v>
+      </c>
+      <c r="N60" t="str">
+        <f>MID(B60,9,8)</f>
+        <v>T2782000</v>
+      </c>
+      <c r="O60" t="str">
+        <f>MID(B60,18,80)</f>
+        <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
+      </c>
+      <c r="T60" t="str">
+        <f>CONCATENATE($U$1,M60,O60)</f>
+        <v>label obey_2008= "R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB60" t="str">
+        <f t="shared" si="0"/>
+        <v>"T2782000"="obey_2008",</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>43</v>
+      </c>
+      <c r="B61" t="s">
+        <v>161</v>
+      </c>
+      <c r="H61" t="str">
+        <f>MID(B61,21,40)</f>
+        <v>R CURR REL PREF 2005";</v>
+      </c>
+      <c r="M61" t="s">
+        <v>297</v>
+      </c>
+      <c r="N61" t="str">
+        <f>MID(B61,9,8)</f>
+        <v>S5532800</v>
+      </c>
+      <c r="O61" t="str">
+        <f>MID(B61,18,80)</f>
+        <v>= "R CURR REL PREF 2005";</v>
+      </c>
+      <c r="T61" t="str">
+        <f>CONCATENATE($U$1,M61,O61)</f>
+        <v>label relpref_2005= "R CURR REL PREF 2005";</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB61" t="str">
+        <f t="shared" si="0"/>
+        <v>"S5532800"="relpref_2005",</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
+        <v>168</v>
+      </c>
+      <c r="H62" t="str">
+        <f>MID(B62,21,40)</f>
+        <v>R CURR REL PREF 2008";</v>
+      </c>
+      <c r="M62" t="s">
+        <v>298</v>
+      </c>
+      <c r="N62" t="str">
+        <f>MID(B62,9,8)</f>
+        <v>T2111400</v>
+      </c>
+      <c r="O62" t="str">
+        <f>MID(B62,18,80)</f>
+        <v>= "R CURR REL PREF 2008";</v>
+      </c>
+      <c r="T62" t="str">
+        <f>CONCATENATE($U$1,M62,O62)</f>
+        <v>label relpref_2008= "R CURR REL PREF 2008";</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB62" t="str">
+        <f t="shared" si="0"/>
+        <v>"T2111400"="relpref_2008",</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="str">
+        <f>MID(B63,21,40)</f>
+        <v>R NOT NEED RELIGION TO HAVE VALUES 2002"</v>
+      </c>
+      <c r="M63" t="s">
+        <v>299</v>
+      </c>
+      <c r="N63" t="str">
+        <f>MID(B63,9,8)</f>
+        <v>S0919400</v>
+      </c>
+      <c r="O63" t="str">
+        <f>MID(B63,18,80)</f>
+        <v>= "R NOT NEED RELIGION TO HAVE VALUES 2002";</v>
+      </c>
+      <c r="T63" t="str">
+        <f>CONCATENATE($U$1,M63,O63)</f>
+        <v>label values_2002= "R NOT NEED RELIGION TO HAVE VALUES 2002";</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB63" t="str">
+        <f t="shared" si="0"/>
+        <v>"S0919400"="values_2002",</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="str">
+        <f>MID(B64,21,40)</f>
+        <v>R NOT NEED RELIGION TO HAVE VALUES 2005"</v>
+      </c>
+      <c r="M64" t="s">
+        <v>300</v>
+      </c>
+      <c r="N64" t="str">
+        <f>MID(B64,9,8)</f>
+        <v>S6316800</v>
+      </c>
+      <c r="O64" t="str">
+        <f>MID(B64,18,80)</f>
+        <v>= "R NOT NEED RELIGION TO HAVE VALUES 2005";</v>
+      </c>
+      <c r="T64" t="str">
+        <f>CONCATENATE($U$1,M64,O64)</f>
+        <v>label values_2005= "R NOT NEED RELIGION TO HAVE VALUES 2005";</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB64" t="str">
+        <f t="shared" si="0"/>
+        <v>"S6316800"="values_2005",</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" t="str">
+        <f>MID(B65,21,40)</f>
+        <v>R NOT NEED RELIGION TO HAVE VALUES 2008"</v>
+      </c>
+      <c r="M65" t="s">
+        <v>301</v>
+      </c>
+      <c r="N65" t="str">
+        <f>MID(B65,9,8)</f>
+        <v>T2781900</v>
+      </c>
+      <c r="O65" t="str">
+        <f>MID(B65,18,80)</f>
+        <v>= "R NOT NEED RELIGION TO HAVE VALUES 2008";</v>
+      </c>
+      <c r="T65" t="str">
+        <f>CONCATENATE($U$1,M65,O65)</f>
+        <v>label values_2008= "R NOT NEED RELIGION TO HAVE VALUES 2008";</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB65" t="str">
+        <f t="shared" si="0"/>
+        <v>"T2781900"="values_2008",</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>32</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" t="str">
+        <f>MID(B66,21,40)</f>
+        <v>R PRAYS MORE THAN ONCE A DAY 2002";</v>
+      </c>
+      <c r="M66" t="s">
+        <v>302</v>
+      </c>
+      <c r="N66" t="str">
+        <f>MID(B66,9,8)</f>
+        <v>S0919800</v>
+      </c>
+      <c r="O66" t="str">
+        <f>MID(B66,18,80)</f>
+        <v>= "R PRAYS MORE THAN ONCE A DAY 2002";</v>
+      </c>
+      <c r="T66" t="str">
+        <f>CONCATENATE($U$1,M66,O66)</f>
+        <v>label pray_2002= "R PRAYS MORE THAN ONCE A DAY 2002";</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB66" t="str">
+        <f t="shared" si="0"/>
+        <v>"S0919800"="pray_2002",</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>49</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" t="str">
+        <f>MID(B67,21,40)</f>
+        <v>R PRAYS MORE THAN ONCE A DAY 2005";</v>
+      </c>
+      <c r="M67" t="s">
+        <v>303</v>
+      </c>
+      <c r="N67" t="str">
+        <f>MID(B67,9,8)</f>
+        <v>S6317200</v>
+      </c>
+      <c r="O67" t="str">
+        <f>MID(B67,18,80)</f>
+        <v>= "R PRAYS MORE THAN ONCE A DAY 2005";</v>
+      </c>
+      <c r="T67" t="str">
+        <f>CONCATENATE($U$1,M67,O67)</f>
+        <v>label pray_2005= "R PRAYS MORE THAN ONCE A DAY 2005";</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB67" t="str">
+        <f t="shared" ref="AB67:AB71" si="1">CONCATENATE(AA67,N67,AA67,"=",AA67,M67,AA67,",")</f>
+        <v>"S6317200"="pray_2005",</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" t="str">
+        <f>MID(B68,21,40)</f>
+        <v>R PRAYS MORE THAN ONCE A DAY 2008";</v>
+      </c>
+      <c r="M68" t="s">
+        <v>304</v>
+      </c>
+      <c r="N68" t="str">
+        <f>MID(B68,9,8)</f>
+        <v>T2782300</v>
+      </c>
+      <c r="O68" t="str">
+        <f>MID(B68,18,80)</f>
+        <v>= "R PRAYS MORE THAN ONCE A DAY 2008";</v>
+      </c>
+      <c r="T68" t="str">
+        <f>CONCATENATE($U$1,M68,O68)</f>
+        <v>label pray_2008= "R PRAYS MORE THAN ONCE A DAY 2008";</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB68" t="str">
         <f t="shared" si="1"/>
-        <v>R0323900</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" si="2"/>
-        <v>= "# DAYS/WK TYP FAM RELIGIOUS 1997";</v>
-      </c>
-      <c r="T3" t="str">
-        <f t="shared" si="3"/>
-        <v>label famrel_1997= "# DAYS/WK TYP FAM RELIGIOUS 1997";</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>KEY!SEX (SYMBOL) 1997";</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" t="str">
+        <v>"T2782300"="pray_2008",</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="H69" t="str">
+        <f>MID(B69,21,40)</f>
+        <v>WHAT IS PR CURR RELIG PREF? 1997";</v>
+      </c>
+      <c r="M69" t="s">
+        <v>208</v>
+      </c>
+      <c r="N69" t="str">
+        <f>MID(B69,9,8)</f>
+        <v>R0552300</v>
+      </c>
+      <c r="O69" t="str">
+        <f>MID(B69,18,80)</f>
+        <v>= "WHAT IS PR CURR RELIG PREF? 1997";</v>
+      </c>
+      <c r="T69" t="str">
+        <f>CONCATENATE($U$1,M69,O69)</f>
+        <v>label prelpref= "WHAT IS PR CURR RELIG PREF? 1997";</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB69" t="str">
         <f t="shared" si="1"/>
-        <v>R0536300</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="2"/>
-        <v>= "KEY!SEX (SYMBOL) 1997";</v>
-      </c>
-      <c r="T4" t="str">
-        <f t="shared" si="3"/>
-        <v>label sex= "KEY!SEX (SYMBOL) 1997";</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>KEY!BDATE M/Y (SYMBOL) 1997";</v>
-      </c>
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" t="str">
+        <v>"R0552300"="prelpref",</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H70" t="str">
+        <f>MID(B70,21,40)</f>
+        <v>WHAT RELIG PR RAISED IN? 1997";</v>
+      </c>
+      <c r="M70" t="s">
+        <v>209</v>
+      </c>
+      <c r="N70" t="str">
+        <f>MID(B70,9,8)</f>
+        <v>R0552200</v>
+      </c>
+      <c r="O70" t="str">
+        <f>MID(B70,18,80)</f>
+        <v>= "WHAT RELIG PR RAISED IN? 1997";</v>
+      </c>
+      <c r="T70" t="str">
+        <f>CONCATENATE($U$1,M70,O70)</f>
+        <v>label praised= "WHAT RELIG PR RAISED IN? 1997";</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB70" t="str">
         <f t="shared" si="1"/>
-        <v>R0536401</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="2"/>
-        <v>= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" si="3"/>
-        <v>label bmonth= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>KEY!BDATE M/Y (SYMBOL) 1997";</v>
-      </c>
-      <c r="M6" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" t="str">
+        <v>"R0552200"="praised",</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="H71" t="str">
+        <f>MID(B71,21,40)</f>
+        <v>WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
+      </c>
+      <c r="M71" t="s">
+        <v>210</v>
+      </c>
+      <c r="N71" t="str">
+        <f>MID(B71,9,8)</f>
+        <v>R0555700</v>
+      </c>
+      <c r="O71" t="str">
+        <f>MID(B71,18,80)</f>
+        <v>= "WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
+      </c>
+      <c r="T71" t="str">
+        <f>CONCATENATE($U$1,M71,O71)</f>
+        <v>label psraised= "WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB71" t="str">
         <f t="shared" si="1"/>
-        <v>R0536402</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="2"/>
-        <v>= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="3"/>
-        <v>label byear= "KEY!BDATE M/Y (SYMBOL) 1997";</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>WHAT RELIG PR RAISED IN? 1997";</v>
-      </c>
-      <c r="M7" t="s">
-        <v>209</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="1"/>
-        <v>R0552200</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="2"/>
-        <v>= "WHAT RELIG PR RAISED IN? 1997";</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="3"/>
-        <v>label praised= "WHAT RELIG PR RAISED IN? 1997";</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>WHAT IS PR CURR RELIG PREF? 1997";</v>
-      </c>
-      <c r="M8" t="s">
-        <v>208</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="1"/>
-        <v>R0552300</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="2"/>
-        <v>= "WHAT IS PR CURR RELIG PREF? 1997";</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="3"/>
-        <v>label prelpref= "WHAT IS PR CURR RELIG PREF? 1997";</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
-      </c>
-      <c r="M9" t="s">
-        <v>210</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="1"/>
-        <v>R0555700</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="2"/>
-        <v>= "WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="3"/>
-        <v>label psraised= "WHAT RELIG PR SP/PART RAISED IN? 1997";</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>PR SP/PART CURR RELIG PREF? 1997";</v>
-      </c>
-      <c r="M10" t="s">
-        <v>207</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="1"/>
-        <v>R0555800</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="2"/>
-        <v>= "PR SP/PART CURR RELIG PREF? 1997";</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="3"/>
-        <v>label psrelpref= "PR SP/PART CURR RELIG PREF? 1997";</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 1997";</v>
-      </c>
-      <c r="M11" t="s">
-        <v>252</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="1"/>
-        <v>R1193900</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 1997";</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_1997= "CV_AGE(MONTHS)_INT_DATE 1997";</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 1997";</v>
-      </c>
-      <c r="M12" t="s">
-        <v>266</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="1"/>
-        <v>R1194100</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 1997";</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_1997= "CV_AGE_INT_DATE 1997";</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_SAMPLE_TYPE 1997";</v>
-      </c>
-      <c r="M13" t="s">
-        <v>196</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="1"/>
-        <v>R1235800</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_SAMPLE_TYPE 1997";</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="3"/>
-        <v>label samplesype= "CV_SAMPLE_TYPE 1997";</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
-      </c>
-      <c r="M14" t="s">
-        <v>183</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="1"/>
-        <v>R1482600</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="2"/>
-        <v>= "KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="3"/>
-        <v>label race= "KEY!RACE_ETHNICITY (SYMBOL) 1997";</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v># DAYS/WK TYP FAM RELIGIOUS 1998";</v>
-      </c>
-      <c r="M15" t="s">
-        <v>310</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="1"/>
-        <v>R2165200</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="2"/>
-        <v>= "# DAYS/WK TYP FAM RELIGIOUS 1998";</v>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="3"/>
-        <v>label famrel_1998= "# DAYS/WK TYP FAM RELIGIOUS 1998";</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 1998";</v>
-      </c>
-      <c r="M16" t="s">
-        <v>253</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="1"/>
-        <v>R2553400</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 1998";</v>
-      </c>
-      <c r="T16" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_1998= "CV_AGE(MONTHS)_INT_DATE 1998";</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 1998";</v>
-      </c>
-      <c r="M17" t="s">
-        <v>267</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="1"/>
-        <v>R2553500</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 1998";</v>
-      </c>
-      <c r="T17" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_1998= "CV_AGE_INT_DATE 1998";</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v># DAYS/WK TYP FAM RELIGIOUS 1999";</v>
-      </c>
-      <c r="M18" t="s">
-        <v>309</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="1"/>
-        <v>R3483100</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="2"/>
-        <v>= "# DAYS/WK TYP FAM RELIGIOUS 1999";</v>
-      </c>
-      <c r="T18" t="str">
-        <f t="shared" si="3"/>
-        <v>label famrel_1999= "# DAYS/WK TYP FAM RELIGIOUS 1999";</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 1999";</v>
-      </c>
-      <c r="M19" t="s">
-        <v>254</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="1"/>
-        <v>R3876200</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 1999";</v>
-      </c>
-      <c r="T19" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_1999= "CV_AGE(MONTHS)_INT_DATE 1999";</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 1999";</v>
-      </c>
-      <c r="M20" t="s">
-        <v>268</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="1"/>
-        <v>R3876300</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 1999";</v>
-      </c>
-      <c r="T20" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_1999= "CV_AGE_INT_DATE 1999";</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v># DAYS/WK TYP FAM RELIGIOUS 2000";</v>
-      </c>
-      <c r="M21" t="s">
-        <v>308</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="1"/>
-        <v>R4881300</v>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="2"/>
-        <v>= "# DAYS/WK TYP FAM RELIGIOUS 2000";</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="3"/>
-        <v>label famrel_2000= "# DAYS/WK TYP FAM RELIGIOUS 2000";</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
-      </c>
-      <c r="M22" t="s">
-        <v>280</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="1"/>
-        <v>R4893400</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="2"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
-      </c>
-      <c r="T22" t="str">
-        <f t="shared" si="3"/>
-        <v>label attend_2000= "HOW OFTEN R ATTEND WORSHIP SERV 2000";</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2000";</v>
-      </c>
-      <c r="M23" t="s">
-        <v>255</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="1"/>
-        <v>R5453600</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2000";</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_2000= "CV_AGE(MONTHS)_INT_DATE 2000";</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 2000";</v>
-      </c>
-      <c r="M24" t="s">
-        <v>269</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="1"/>
-        <v>R5453700</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 2000";</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_2000= "CV_AGE_INT_DATE 2000";</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
-      </c>
-      <c r="M25" t="s">
-        <v>281</v>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" si="1"/>
-        <v>R6520100</v>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" si="2"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="3"/>
-        <v>label attend_2001= "HOW OFTEN R ATTEND WORSHIP SERV 2001";</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2001";</v>
-      </c>
-      <c r="M26" t="s">
-        <v>256</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="1"/>
-        <v>R7215900</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2001";</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="3"/>
-        <v>label agemon_2001= "CV_AGE(MONTHS)_INT_DATE 2001";</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>152</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>CV_AGE_INT_DATE 2001";</v>
-      </c>
-      <c r="M27" t="s">
-        <v>270</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="1"/>
-        <v>R7216000</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="2"/>
-        <v>= "CV_AGE_INT_DATE 2001";</v>
-      </c>
-      <c r="T27" t="str">
-        <f t="shared" si="3"/>
-        <v>label ageyear_2001= "CV_AGE_INT_DATE 2001";</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
-      </c>
-      <c r="M28" t="s">
-        <v>282</v>
-      </c>
-      <c r="N28" t="str">
-        <f t="shared" si="1"/>
-        <v>S0919300</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="2"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
-      </c>
-      <c r="T28" t="str">
-        <f t="shared" si="3"/>
-        <v>label attend_2002= "HOW OFTEN R ATTEND WORSHIP SERV 2002";</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>R NOT NEED RELIGION TO HAVE VALUES 2002"</v>
-      </c>
-      <c r="M29" t="s">
-        <v>299</v>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" si="1"/>
-        <v>S0919400</v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" si="2"/>
-        <v>= "R NOT NEED RELIGION TO HAVE VALUES 2002";</v>
-      </c>
-      <c r="T29" t="str">
-        <f t="shared" si="3"/>
-        <v>label values_2002= "R NOT NEED RELIGION TO HAVE VALUES 2002";</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
-      </c>
-      <c r="M30" t="s">
-        <v>294</v>
-      </c>
-      <c r="N30" t="str">
-        <f t="shared" si="1"/>
-        <v>S0919500</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" si="2"/>
-        <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
-      </c>
-      <c r="T30" t="str">
-        <f t="shared" si="3"/>
-        <v>label obey_2002= "R BELIEVE RELIG TEACHINGS OBEYED 2002";</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>R ASKS GOD HELP MAKE DECISIONS 2002";</v>
-      </c>
-      <c r="M31" t="s">
-        <v>291</v>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" si="1"/>
-        <v>S0919600</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="2"/>
-        <v>= "R ASKS GOD HELP MAKE DECISIONS 2002";</v>
-      </c>
-      <c r="T31" t="str">
-        <f t="shared" si="3"/>
-        <v>label decide_2002= "R ASKS GOD HELP MAKE DECISIONS 2002";</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>GOD NOTHING TO DO HAPPENS TO R 2002";</v>
-      </c>
-      <c r="M32" t="s">
-        <v>305</v>
-      </c>
-      <c r="N32" t="str">
-        <f t="shared" si="1"/>
-        <v>S0919700</v>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" si="2"/>
-        <v>= "GOD NOTHING TO DO HAPPENS TO R 2002";</v>
-      </c>
-      <c r="T32" t="str">
-        <f t="shared" si="3"/>
-        <v>label todo_2002= "GOD NOTHING TO DO HAPPENS TO R 2002";</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>R PRAYS MORE THAN ONCE A DAY 2002";</v>
-      </c>
-      <c r="M33" t="s">
-        <v>302</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="1"/>
-        <v>S0919800</v>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" si="2"/>
-        <v>= "R PRAYS MORE THAN ONCE A DAY 2002";</v>
-      </c>
-      <c r="T33" t="str">
-        <f t="shared" si="3"/>
-        <v>label pray_2002= "R PRAYS MORE THAN ONCE A DAY 2002";</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>153</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" ref="H34:H65" si="4">MID(B34,21,40)</f>
-        <v>CV_AGE(MONTHS)_INT_DATE 2002";</v>
-      </c>
-      <c r="M34" t="s">
-        <v>257</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" ref="N34:N65" si="5">MID(B34,9,8)</f>
-        <v>S1531300</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" ref="O34:O65" si="6">MID(B34,18,80)</f>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2002";</v>
-      </c>
-      <c r="T34" t="str">
-        <f t="shared" ref="T34:T65" si="7">CONCATENATE($U$1,M34,O34)</f>
-        <v>label agemon_2002= "CV_AGE(MONTHS)_INT_DATE 2002";</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>154</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="4"/>
-        <v>CV_AGE_INT_DATE 2002";</v>
-      </c>
-      <c r="M35" t="s">
-        <v>271</v>
-      </c>
-      <c r="N35" t="str">
-        <f t="shared" si="5"/>
-        <v>S1531400</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="6"/>
-        <v>= "CV_AGE_INT_DATE 2002";</v>
-      </c>
-      <c r="T35" t="str">
-        <f t="shared" si="7"/>
-        <v>label ageyear_2002= "CV_AGE_INT_DATE 2002";</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>155</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="4"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2003";</v>
-      </c>
-      <c r="M36" t="s">
-        <v>258</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="5"/>
-        <v>S2000900</v>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" si="6"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2003";</v>
-      </c>
-      <c r="T36" t="str">
-        <f t="shared" si="7"/>
-        <v>label agemon_2003= "CV_AGE(MONTHS)_INT_DATE 2003";</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>156</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="4"/>
-        <v>CV_AGE_INT_DATE 2003";</v>
-      </c>
-      <c r="M37" t="s">
-        <v>272</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="5"/>
-        <v>S2001000</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="6"/>
-        <v>= "CV_AGE_INT_DATE 2003";</v>
-      </c>
-      <c r="T37" t="str">
-        <f t="shared" si="7"/>
-        <v>label ageyear_2003= "CV_AGE_INT_DATE 2003";</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
-      </c>
-      <c r="M38" t="s">
-        <v>283</v>
-      </c>
-      <c r="N38" t="str">
-        <f t="shared" si="5"/>
-        <v>S2987800</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
-      </c>
-      <c r="T38" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_2003= "HOW OFTEN R ATTEND WORSHIP SERV 2003";</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>157</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="4"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2004";</v>
-      </c>
-      <c r="M39" t="s">
-        <v>259</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" si="5"/>
-        <v>S3801000</v>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" si="6"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2004";</v>
-      </c>
-      <c r="T39" t="str">
-        <f t="shared" si="7"/>
-        <v>label agemon_2004= "CV_AGE(MONTHS)_INT_DATE 2004";</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>158</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="4"/>
-        <v>CV_AGE_INT_DATE 2004";</v>
-      </c>
-      <c r="M40" t="s">
-        <v>273</v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="5"/>
-        <v>S3801100</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="6"/>
-        <v>= "CV_AGE_INT_DATE 2004";</v>
-      </c>
-      <c r="T40" t="str">
-        <f t="shared" si="7"/>
-        <v>label ageyear_2004= "CV_AGE_INT_DATE 2004";</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
-      </c>
-      <c r="M41" t="s">
-        <v>284</v>
-      </c>
-      <c r="N41" t="str">
-        <f t="shared" si="5"/>
-        <v>S4681700</v>
-      </c>
-      <c r="O41" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
-      </c>
-      <c r="T41" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_2004= "HOW OFTEN R ATTEND WORSHIP SERV 2004";</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>159</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="4"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2005";</v>
-      </c>
-      <c r="M42" t="s">
-        <v>260</v>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" si="5"/>
-        <v>S5400900</v>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" si="6"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2005";</v>
-      </c>
-      <c r="T42" t="str">
-        <f t="shared" si="7"/>
-        <v>label agemon_2005= "CV_AGE(MONTHS)_INT_DATE 2005";</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>160</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="4"/>
-        <v>CV_AGE_INT_DATE 2005";</v>
-      </c>
-      <c r="M43" t="s">
-        <v>274</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="5"/>
-        <v>S5401000</v>
-      </c>
-      <c r="O43" t="str">
-        <f t="shared" si="6"/>
-        <v>= "CV_AGE_INT_DATE 2005";</v>
-      </c>
-      <c r="T43" t="str">
-        <f t="shared" si="7"/>
-        <v>label ageyear_2005= "CV_AGE_INT_DATE 2005";</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>161</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="4"/>
-        <v>R CURR REL PREF 2005";</v>
-      </c>
-      <c r="M44" t="s">
-        <v>297</v>
-      </c>
-      <c r="N44" t="str">
-        <f t="shared" si="5"/>
-        <v>S5532800</v>
-      </c>
-      <c r="O44" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R CURR REL PREF 2005";</v>
-      </c>
-      <c r="T44" t="str">
-        <f t="shared" si="7"/>
-        <v>label relpref_2005= "R CURR REL PREF 2005";</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
-      </c>
-      <c r="M45" t="s">
-        <v>285</v>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" si="5"/>
-        <v>S6316700</v>
-      </c>
-      <c r="O45" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
-      </c>
-      <c r="T45" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_2005= "HOW OFTEN R ATTEND WORSHIP SERV 2005";</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="4"/>
-        <v>R NOT NEED RELIGION TO HAVE VALUES 2005"</v>
-      </c>
-      <c r="M46" t="s">
-        <v>300</v>
-      </c>
-      <c r="N46" t="str">
-        <f t="shared" si="5"/>
-        <v>S6316800</v>
-      </c>
-      <c r="O46" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R NOT NEED RELIGION TO HAVE VALUES 2005";</v>
-      </c>
-      <c r="T46" t="str">
-        <f t="shared" si="7"/>
-        <v>label values_2005= "R NOT NEED RELIGION TO HAVE VALUES 2005";</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="4"/>
-        <v>R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
-      </c>
-      <c r="M47" t="s">
-        <v>295</v>
-      </c>
-      <c r="N47" t="str">
-        <f t="shared" si="5"/>
-        <v>S6316900</v>
-      </c>
-      <c r="O47" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
-      </c>
-      <c r="T47" t="str">
-        <f t="shared" si="7"/>
-        <v>label obey_2005= "R BELIEVE RELIG TEACHINGS OBEYED 2005";</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="4"/>
-        <v>R ASKS GOD HELP MAKE DECISIONS 2005";</v>
-      </c>
-      <c r="M48" t="s">
-        <v>292</v>
-      </c>
-      <c r="N48" t="str">
-        <f t="shared" si="5"/>
-        <v>S6317000</v>
-      </c>
-      <c r="O48" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R ASKS GOD HELP MAKE DECISIONS 2005";</v>
-      </c>
-      <c r="T48" t="str">
-        <f t="shared" si="7"/>
-        <v>label decide_2005= "R ASKS GOD HELP MAKE DECISIONS 2005";</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="4"/>
-        <v>GOD NOTHING TO DO HAPPENS TO R 2005";</v>
-      </c>
-      <c r="M49" t="s">
-        <v>306</v>
-      </c>
-      <c r="N49" t="str">
-        <f t="shared" si="5"/>
-        <v>S6317100</v>
-      </c>
-      <c r="O49" t="str">
-        <f t="shared" si="6"/>
-        <v>= "GOD NOTHING TO DO HAPPENS TO R 2005";</v>
-      </c>
-      <c r="T49" t="str">
-        <f t="shared" si="7"/>
-        <v>label todo_2005= "GOD NOTHING TO DO HAPPENS TO R 2005";</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="4"/>
-        <v>R PRAYS MORE THAN ONCE A DAY 2005";</v>
-      </c>
-      <c r="M50" t="s">
-        <v>303</v>
-      </c>
-      <c r="N50" t="str">
-        <f t="shared" si="5"/>
-        <v>S6317200</v>
-      </c>
-      <c r="O50" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R PRAYS MORE THAN ONCE A DAY 2005";</v>
-      </c>
-      <c r="T50" t="str">
-        <f t="shared" si="7"/>
-        <v>label pray_2005= "R PRAYS MORE THAN ONCE A DAY 2005";</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>162</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="4"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2006";</v>
-      </c>
-      <c r="M51" t="s">
-        <v>261</v>
-      </c>
-      <c r="N51" t="str">
-        <f t="shared" si="5"/>
-        <v>S7501100</v>
-      </c>
-      <c r="O51" t="str">
-        <f t="shared" si="6"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2006";</v>
-      </c>
-      <c r="T51" t="str">
-        <f t="shared" si="7"/>
-        <v>label agemon_2006= "CV_AGE(MONTHS)_INT_DATE 2006";</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>163</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="4"/>
-        <v>CV_AGE_INT_DATE 2006";</v>
-      </c>
-      <c r="M52" t="s">
-        <v>275</v>
-      </c>
-      <c r="N52" t="str">
-        <f t="shared" si="5"/>
-        <v>S7501200</v>
-      </c>
-      <c r="O52" t="str">
-        <f t="shared" si="6"/>
-        <v>= "CV_AGE_INT_DATE 2006";</v>
-      </c>
-      <c r="T52" t="str">
-        <f t="shared" si="7"/>
-        <v>label ageyear_2006= "CV_AGE_INT_DATE 2006";</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
-      </c>
-      <c r="M53" t="s">
-        <v>286</v>
-      </c>
-      <c r="N53" t="str">
-        <f t="shared" si="5"/>
-        <v>S8331500</v>
-      </c>
-      <c r="O53" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
-      </c>
-      <c r="T53" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_2006= "HOW OFTEN R ATTEND WORSHIP SERV 2006";</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>164</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="4"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2007";</v>
-      </c>
-      <c r="M54" t="s">
-        <v>262</v>
-      </c>
-      <c r="N54" t="str">
-        <f t="shared" si="5"/>
-        <v>T0008400</v>
-      </c>
-      <c r="O54" t="str">
-        <f t="shared" si="6"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2007";</v>
-      </c>
-      <c r="T54" t="str">
-        <f t="shared" si="7"/>
-        <v>label agemon_2007= "CV_AGE(MONTHS)_INT_DATE 2007";</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>165</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="4"/>
-        <v>CV_AGE_INT_DATE 2007";</v>
-      </c>
-      <c r="M55" t="s">
-        <v>276</v>
-      </c>
-      <c r="N55" t="str">
-        <f t="shared" si="5"/>
-        <v>T0008500</v>
-      </c>
-      <c r="O55" t="str">
-        <f t="shared" si="6"/>
-        <v>= "CV_AGE_INT_DATE 2007";</v>
-      </c>
-      <c r="T55" t="str">
-        <f t="shared" si="7"/>
-        <v>label ageyear_2007= "CV_AGE_INT_DATE 2007";</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>28</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
-      </c>
-      <c r="M56" t="s">
-        <v>287</v>
-      </c>
-      <c r="N56" t="str">
-        <f t="shared" si="5"/>
-        <v>T0739400</v>
-      </c>
-      <c r="O56" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
-      </c>
-      <c r="T56" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_2007= "HOW OFTEN R ATTEND WORSHIP SERV 2007";</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>166</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="4"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2008";</v>
-      </c>
-      <c r="M57" t="s">
-        <v>263</v>
-      </c>
-      <c r="N57" t="str">
-        <f t="shared" si="5"/>
-        <v>T2011000</v>
-      </c>
-      <c r="O57" t="str">
-        <f t="shared" si="6"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2008";</v>
-      </c>
-      <c r="T57" t="str">
-        <f t="shared" si="7"/>
-        <v>label agemon_2008= "CV_AGE(MONTHS)_INT_DATE 2008";</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>167</v>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" si="4"/>
-        <v>CV_AGE_INT_DATE 2008";</v>
-      </c>
-      <c r="M58" t="s">
-        <v>277</v>
-      </c>
-      <c r="N58" t="str">
-        <f t="shared" si="5"/>
-        <v>T2011100</v>
-      </c>
-      <c r="O58" t="str">
-        <f t="shared" si="6"/>
-        <v>= "CV_AGE_INT_DATE 2008";</v>
-      </c>
-      <c r="T58" t="str">
-        <f t="shared" si="7"/>
-        <v>label ageyear_2008= "CV_AGE_INT_DATE 2008";</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>168</v>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="4"/>
-        <v>R CURR REL PREF 2008";</v>
-      </c>
-      <c r="M59" t="s">
-        <v>298</v>
-      </c>
-      <c r="N59" t="str">
-        <f t="shared" si="5"/>
-        <v>T2111400</v>
-      </c>
-      <c r="O59" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R CURR REL PREF 2008";</v>
-      </c>
-      <c r="T59" t="str">
-        <f t="shared" si="7"/>
-        <v>label relpref_2008= "R CURR REL PREF 2008";</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="H60" t="str">
-        <f t="shared" si="4"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
-      </c>
-      <c r="M60" t="s">
-        <v>288</v>
-      </c>
-      <c r="N60" t="str">
-        <f t="shared" si="5"/>
-        <v>T2781700</v>
-      </c>
-      <c r="O60" t="str">
-        <f t="shared" si="6"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
-      </c>
-      <c r="T60" t="str">
-        <f t="shared" si="7"/>
-        <v>label attend_2008= "HOW OFTEN R ATTEND WORSHIP SERV 2008";</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>30</v>
-      </c>
-      <c r="H61" t="str">
-        <f t="shared" si="4"/>
-        <v>R NOT NEED RELIGION TO HAVE VALUES 2008"</v>
-      </c>
-      <c r="M61" t="s">
-        <v>301</v>
-      </c>
-      <c r="N61" t="str">
-        <f t="shared" si="5"/>
-        <v>T2781900</v>
-      </c>
-      <c r="O61" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R NOT NEED RELIGION TO HAVE VALUES 2008";</v>
-      </c>
-      <c r="T61" t="str">
-        <f t="shared" si="7"/>
-        <v>label values_2008= "R NOT NEED RELIGION TO HAVE VALUES 2008";</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>31</v>
-      </c>
-      <c r="H62" t="str">
-        <f t="shared" si="4"/>
-        <v>R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
-      </c>
-      <c r="M62" t="s">
-        <v>296</v>
-      </c>
-      <c r="N62" t="str">
-        <f t="shared" si="5"/>
-        <v>T2782000</v>
-      </c>
-      <c r="O62" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
-      </c>
-      <c r="T62" t="str">
-        <f t="shared" si="7"/>
-        <v>label obey_2008= "R BELIEVE RELIG TEACHINGS OBEYED 2008";</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" t="str">
-        <f t="shared" si="4"/>
-        <v>R ASKS GOD HELP MAKE DECISIONS 2008";</v>
-      </c>
-      <c r="M63" t="s">
-        <v>293</v>
-      </c>
-      <c r="N63" t="str">
-        <f t="shared" si="5"/>
-        <v>T2782100</v>
-      </c>
-      <c r="O63" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R ASKS GOD HELP MAKE DECISIONS 2008";</v>
-      </c>
-      <c r="T63" t="str">
-        <f t="shared" si="7"/>
-        <v>label decide_2008= "R ASKS GOD HELP MAKE DECISIONS 2008";</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" t="str">
-        <f t="shared" si="4"/>
-        <v>GOD NOTHING TO DO HAPPENS TO R 2008";</v>
-      </c>
-      <c r="M64" t="s">
-        <v>307</v>
-      </c>
-      <c r="N64" t="str">
-        <f t="shared" si="5"/>
-        <v>T2782200</v>
-      </c>
-      <c r="O64" t="str">
-        <f t="shared" si="6"/>
-        <v>= "GOD NOTHING TO DO HAPPENS TO R 2008";</v>
-      </c>
-      <c r="T64" t="str">
-        <f t="shared" si="7"/>
-        <v>label todo_2008= "GOD NOTHING TO DO HAPPENS TO R 2008";</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" t="str">
-        <f t="shared" si="4"/>
-        <v>R PRAYS MORE THAN ONCE A DAY 2008";</v>
-      </c>
-      <c r="M65" t="s">
-        <v>304</v>
-      </c>
-      <c r="N65" t="str">
-        <f t="shared" si="5"/>
-        <v>T2782300</v>
-      </c>
-      <c r="O65" t="str">
-        <f t="shared" si="6"/>
-        <v>= "R PRAYS MORE THAN ONCE A DAY 2008";</v>
-      </c>
-      <c r="T65" t="str">
-        <f t="shared" si="7"/>
-        <v>label pray_2008= "R PRAYS MORE THAN ONCE A DAY 2008";</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>169</v>
-      </c>
-      <c r="H66" t="str">
-        <f t="shared" ref="H66:H71" si="8">MID(B66,21,40)</f>
-        <v>CV_AGE(MONTHS)_INT_DATE 2009";</v>
-      </c>
-      <c r="M66" t="s">
-        <v>264</v>
-      </c>
-      <c r="N66" t="str">
-        <f t="shared" ref="N66:N71" si="9">MID(B66,9,8)</f>
-        <v>T3601400</v>
-      </c>
-      <c r="O66" t="str">
-        <f t="shared" ref="O66:O71" si="10">MID(B66,18,80)</f>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2009";</v>
-      </c>
-      <c r="T66" t="str">
-        <f t="shared" ref="T66:T71" si="11">CONCATENATE($U$1,M66,O66)</f>
-        <v>label agemon_2009= "CV_AGE(MONTHS)_INT_DATE 2009";</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>170</v>
-      </c>
-      <c r="H67" t="str">
-        <f t="shared" si="8"/>
-        <v>CV_AGE_INT_DATE 2009";</v>
-      </c>
-      <c r="M67" t="s">
-        <v>278</v>
-      </c>
-      <c r="N67" t="str">
-        <f t="shared" si="9"/>
-        <v>T3601500</v>
-      </c>
-      <c r="O67" t="str">
-        <f t="shared" si="10"/>
-        <v>= "CV_AGE_INT_DATE 2009";</v>
-      </c>
-      <c r="T67" t="str">
-        <f t="shared" si="11"/>
-        <v>label ageyear_2009= "CV_AGE_INT_DATE 2009";</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>171</v>
-      </c>
-      <c r="H68" t="str">
-        <f t="shared" si="8"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
-      </c>
-      <c r="M68" t="s">
-        <v>289</v>
-      </c>
-      <c r="N68" t="str">
-        <f t="shared" si="9"/>
-        <v>T4495000</v>
-      </c>
-      <c r="O68" t="str">
-        <f t="shared" si="10"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
-      </c>
-      <c r="T68" t="str">
-        <f t="shared" si="11"/>
-        <v>label attend_2009= "HOW OFTEN R ATTEND WORSHIP SERV 2009";</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>173</v>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" si="8"/>
-        <v>CV_AGE(MONTHS)_INT_DATE 2010";</v>
-      </c>
-      <c r="M69" t="s">
-        <v>265</v>
-      </c>
-      <c r="N69" t="str">
-        <f t="shared" si="9"/>
-        <v>T5201300</v>
-      </c>
-      <c r="O69" t="str">
-        <f t="shared" si="10"/>
-        <v>= "CV_AGE(MONTHS)_INT_DATE 2010";</v>
-      </c>
-      <c r="T69" t="str">
-        <f t="shared" si="11"/>
-        <v>label agemon_2010= "CV_AGE(MONTHS)_INT_DATE 2010";</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>174</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="8"/>
-        <v>CV_AGE_INT_DATE 2010";</v>
-      </c>
-      <c r="M70" t="s">
-        <v>279</v>
-      </c>
-      <c r="N70" t="str">
-        <f t="shared" si="9"/>
-        <v>T5201400</v>
-      </c>
-      <c r="O70" t="str">
-        <f t="shared" si="10"/>
-        <v>= "CV_AGE_INT_DATE 2010";</v>
-      </c>
-      <c r="T70" t="str">
-        <f t="shared" si="11"/>
-        <v>label ageyear_2010= "CV_AGE_INT_DATE 2010";</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>172</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="8"/>
-        <v>HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
-      </c>
-      <c r="M71" t="s">
-        <v>290</v>
-      </c>
-      <c r="N71" t="str">
-        <f t="shared" si="9"/>
-        <v>T6143400</v>
-      </c>
-      <c r="O71" t="str">
-        <f t="shared" si="10"/>
-        <v>= "HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
-      </c>
-      <c r="T71" t="str">
-        <f t="shared" si="11"/>
-        <v>label attend_2010= "HOW OFTEN R ATTEND WORSHIP SERV 2010";</v>
+        <v>"R0555700"="psraised",</v>
       </c>
     </row>
     <row r="100" spans="13:13" x14ac:dyDescent="0.25">
@@ -4013,7 +4508,7 @@
   </sheetData>
   <autoFilter ref="A1:T71">
     <sortState ref="A2:T71">
-      <sortCondition ref="A1:A71"/>
+      <sortCondition ref="H1:H71"/>
     </sortState>
   </autoFilter>
   <sortState ref="A1:P74">
@@ -4054,26 +4549,26 @@
       <c r="E2" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54" t="s">
+      <c r="G2" s="81"/>
+      <c r="H2" s="82" t="s">
         <v>216</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55" t="s">
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56" t="s">
+      <c r="L2" s="83"/>
+      <c r="M2" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="3:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
@@ -4776,88 +5271,88 @@
       <c r="C22" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
     </row>
     <row r="23" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
     </row>
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
     </row>
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="89" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
     </row>
     <row r="26" spans="2:18" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
@@ -4881,154 +5376,154 @@
       <c r="C27" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
       <c r="R27" s="20"/>
     </row>
     <row r="28" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
       <c r="R28" s="21"/>
     </row>
     <row r="29" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
       <c r="R29" s="21"/>
     </row>
     <row r="30" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
       <c r="R30" s="21"/>
     </row>
     <row r="31" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="80"/>
       <c r="R31" s="21"/>
     </row>
     <row r="32" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="80"/>
       <c r="R32" s="21"/>
     </row>
     <row r="33" spans="3:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="80"/>
       <c r="R33" s="2" t="s">
         <v>247</v>
       </c>
@@ -5037,22 +5532,22 @@
       <c r="C34" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="80"/>
       <c r="R34" s="2" t="s">
         <v>247</v>
       </c>
@@ -5080,97 +5575,92 @@
       </c>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
     </row>
     <row r="39" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
     </row>
     <row r="40" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="79"/>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D37:R37"/>
-    <mergeCell ref="D38:R38"/>
-    <mergeCell ref="D39:R39"/>
-    <mergeCell ref="D40:R40"/>
-    <mergeCell ref="D41:R41"/>
     <mergeCell ref="D34:Q34"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:J2"/>
@@ -5187,6 +5677,11 @@
     <mergeCell ref="D23:Q23"/>
     <mergeCell ref="D24:Q24"/>
     <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="D37:R37"/>
+    <mergeCell ref="D38:R38"/>
+    <mergeCell ref="D39:R39"/>
+    <mergeCell ref="D40:R40"/>
+    <mergeCell ref="D41:R41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5224,20 +5719,20 @@
       <c r="D2" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="83" t="s">
         <v>324</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="65" t="s">
+      <c r="F2" s="83"/>
+      <c r="G2" s="94" t="s">
         <v>322</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="77" t="s">
+      <c r="H2" s="94"/>
+      <c r="I2" s="92" t="s">
         <v>323</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="93"/>
     </row>
     <row r="3" spans="3:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
@@ -5251,7 +5746,7 @@
       <c r="C4" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="52" t="s">
         <v>314</v>
       </c>
       <c r="E4" s="43" t="s">
@@ -5283,7 +5778,7 @@
       <c r="C5" s="26">
         <v>244</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="54">
         <v>2</v>
       </c>
       <c r="E5" s="9">
@@ -5315,31 +5810,31 @@
       <c r="C6" s="42">
         <v>245</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="56">
         <v>6</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="57">
         <v>1984</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="57">
         <v>4</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="58">
         <v>16.5833333333333</v>
       </c>
       <c r="H6" s="35">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I6" s="74">
+      <c r="I6" s="59">
         <v>2000</v>
       </c>
       <c r="J6" s="13">
         <v>0</v>
       </c>
-      <c r="K6" s="72">
+      <c r="K6" s="57">
         <v>0</v>
       </c>
-      <c r="L6" s="75">
+      <c r="L6" s="60">
         <v>0</v>
       </c>
     </row>
@@ -5347,31 +5842,31 @@
       <c r="C7" s="42">
         <v>245</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="56">
         <v>2</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="57">
         <v>1984</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="57">
         <v>4</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="58">
         <v>16.5833333333333</v>
       </c>
       <c r="H7" s="35">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I7" s="74">
+      <c r="I7" s="59">
         <v>2001</v>
       </c>
       <c r="J7" s="13">
         <v>1</v>
       </c>
-      <c r="K7" s="72">
+      <c r="K7" s="57">
         <v>1</v>
       </c>
-      <c r="L7" s="75">
+      <c r="L7" s="60">
         <v>1</v>
       </c>
     </row>
@@ -5379,31 +5874,31 @@
       <c r="C8" s="42">
         <v>245</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="56">
         <v>6</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="57">
         <v>1984</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="57">
         <v>4</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="58">
         <v>16.5833333333333</v>
       </c>
       <c r="H8" s="35">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="59">
         <v>2002</v>
       </c>
       <c r="J8" s="13">
         <v>2</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K8" s="57">
         <v>4</v>
       </c>
-      <c r="L8" s="75">
+      <c r="L8" s="60">
         <v>8</v>
       </c>
     </row>
@@ -5411,31 +5906,31 @@
       <c r="C9" s="42">
         <v>245</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="56">
         <v>6</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="57">
         <v>1984</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="57">
         <v>4</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="58">
         <v>16.5833333333333</v>
       </c>
       <c r="H9" s="35">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I9" s="74">
+      <c r="I9" s="59">
         <v>2003</v>
       </c>
       <c r="J9" s="13">
         <v>3</v>
       </c>
-      <c r="K9" s="72">
+      <c r="K9" s="57">
         <v>9</v>
       </c>
-      <c r="L9" s="75">
+      <c r="L9" s="60">
         <v>27</v>
       </c>
     </row>
@@ -5443,31 +5938,31 @@
       <c r="C10" s="42">
         <v>245</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="56">
         <v>2</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="57">
         <v>1984</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="57">
         <v>4</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="58">
         <v>16.5833333333333</v>
       </c>
       <c r="H10" s="35">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I10" s="74">
+      <c r="I10" s="59">
         <v>2004</v>
       </c>
       <c r="J10" s="13">
         <v>4</v>
       </c>
-      <c r="K10" s="72">
+      <c r="K10" s="57">
         <v>16</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="60">
         <v>64</v>
       </c>
     </row>
@@ -5475,31 +5970,31 @@
       <c r="C11" s="42">
         <v>245</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="56">
         <v>6</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="57">
         <v>1984</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="57">
         <v>4</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="58">
         <v>16.5833333333333</v>
       </c>
       <c r="H11" s="35">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="59">
         <v>2005</v>
       </c>
       <c r="J11" s="13">
         <v>5</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="57">
         <v>25</v>
       </c>
-      <c r="L11" s="75">
+      <c r="L11" s="60">
         <v>125</v>
       </c>
     </row>
@@ -5507,31 +6002,31 @@
       <c r="C12" s="42">
         <v>245</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="56">
         <v>6</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="57">
         <v>1984</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="57">
         <v>4</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="58">
         <v>16.5833333333333</v>
       </c>
       <c r="H12" s="35">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="59">
         <v>2006</v>
       </c>
       <c r="J12" s="13">
         <v>6</v>
       </c>
-      <c r="K12" s="72">
+      <c r="K12" s="57">
         <v>36</v>
       </c>
-      <c r="L12" s="75">
+      <c r="L12" s="60">
         <v>216</v>
       </c>
     </row>
@@ -5539,31 +6034,31 @@
       <c r="C13" s="42">
         <v>245</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="56">
         <v>7</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="57">
         <v>1984</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="57">
         <v>4</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="58">
         <v>16.5833333333333</v>
       </c>
       <c r="H13" s="35">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I13" s="74">
+      <c r="I13" s="59">
         <v>2007</v>
       </c>
       <c r="J13" s="13">
         <v>7</v>
       </c>
-      <c r="K13" s="72">
+      <c r="K13" s="57">
         <v>49</v>
       </c>
-      <c r="L13" s="75">
+      <c r="L13" s="60">
         <v>343</v>
       </c>
     </row>
@@ -5571,31 +6066,31 @@
       <c r="C14" s="42">
         <v>245</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="56">
         <v>6</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="57">
         <v>1984</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="57">
         <v>4</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="58">
         <v>16.5833333333333</v>
       </c>
       <c r="H14" s="35">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I14" s="74">
+      <c r="I14" s="59">
         <v>2008</v>
       </c>
       <c r="J14" s="13">
         <v>8</v>
       </c>
-      <c r="K14" s="72">
+      <c r="K14" s="57">
         <v>64</v>
       </c>
-      <c r="L14" s="75">
+      <c r="L14" s="60">
         <v>512</v>
       </c>
     </row>
@@ -5603,31 +6098,31 @@
       <c r="C15" s="42">
         <v>245</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="56">
         <v>2</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="57">
         <v>1984</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="57">
         <v>4</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="58">
         <v>16.5833333333333</v>
       </c>
       <c r="H15" s="35">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I15" s="74">
+      <c r="I15" s="59">
         <v>2009</v>
       </c>
       <c r="J15" s="13">
         <v>9</v>
       </c>
-      <c r="K15" s="72">
+      <c r="K15" s="57">
         <v>81</v>
       </c>
-      <c r="L15" s="75">
+      <c r="L15" s="60">
         <v>729</v>
       </c>
     </row>
@@ -5635,31 +6130,31 @@
       <c r="C16" s="42">
         <v>245</v>
       </c>
-      <c r="D16" s="71">
+      <c r="D16" s="56">
         <v>6</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="57">
         <v>1984</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="57">
         <v>4</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="58">
         <v>16.5833333333333</v>
       </c>
       <c r="H16" s="35">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I16" s="59">
         <v>2010</v>
       </c>
       <c r="J16" s="13">
         <v>10</v>
       </c>
-      <c r="K16" s="72">
+      <c r="K16" s="57">
         <v>100</v>
       </c>
-      <c r="L16" s="75">
+      <c r="L16" s="60">
         <v>1000</v>
       </c>
     </row>
@@ -5667,7 +6162,7 @@
       <c r="C17" s="30">
         <v>247</v>
       </c>
-      <c r="D17" s="70">
+      <c r="D17" s="55">
         <v>1</v>
       </c>
       <c r="E17" s="7">
@@ -5713,181 +6208,181 @@
       <c r="C19" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="90" t="s">
         <v>316</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
       <c r="J19" s="48"/>
       <c r="K19" s="48"/>
       <c r="L19" s="48"/>
     </row>
     <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
     </row>
     <row r="21" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
     </row>
     <row r="22" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="90" t="s">
         <v>327</v>
       </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
     </row>
     <row r="23" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="90" t="s">
         <v>330</v>
       </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
     </row>
     <row r="24" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="90" t="s">
         <v>328</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
     </row>
     <row r="25" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="44" t="s">
         <v>334</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="87" t="s">
         <v>329</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
     </row>
     <row r="26" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
     </row>
     <row r="27" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="90" t="s">
         <v>250</v>
       </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
     </row>
     <row r="28" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="63" t="s">
         <v>318</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="87" t="s">
         <v>331</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
     </row>
     <row r="29" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="90" t="s">
         <v>332</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
     </row>
     <row r="30" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="90" t="s">
         <v>333</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
     </row>
     <row r="31" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
@@ -5903,52 +6398,47 @@
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D28:L28"/>
-    <mergeCell ref="D30:L30"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="D27:L27"/>
     <mergeCell ref="D36:I36"/>
@@ -5964,6 +6454,11 @@
     <mergeCell ref="D24:L24"/>
     <mergeCell ref="D25:L25"/>
     <mergeCell ref="D29:L29"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="D30:L30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5974,7 +6469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -5998,20 +6493,20 @@
       <c r="D2" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="83" t="s">
         <v>324</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="65" t="s">
+      <c r="F2" s="83"/>
+      <c r="G2" s="94" t="s">
         <v>322</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="77" t="s">
+      <c r="H2" s="94"/>
+      <c r="I2" s="92" t="s">
         <v>323</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="93"/>
     </row>
     <row r="3" spans="2:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
@@ -6022,34 +6517,34 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="75" t="s">
         <v>314</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="65" t="s">
         <v>312</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="73" t="s">
         <v>334</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="65" t="s">
         <v>313</v>
       </c>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="74" t="s">
         <v>318</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="66" t="s">
         <v>320</v>
       </c>
-      <c r="L4" s="84" t="s">
+      <c r="L4" s="66" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6057,31 +6552,31 @@
       <c r="C5" s="42">
         <v>245</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="72">
         <v>6</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="67">
         <v>1984</v>
       </c>
-      <c r="F5" s="85">
+      <c r="F5" s="67">
         <v>4</v>
       </c>
-      <c r="G5" s="76">
+      <c r="G5" s="61">
         <v>16.5833333333333</v>
       </c>
-      <c r="H5" s="88">
+      <c r="H5" s="70">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I5" s="86">
+      <c r="I5" s="68">
         <v>2000</v>
       </c>
-      <c r="J5" s="89">
+      <c r="J5" s="71">
         <v>0</v>
       </c>
-      <c r="K5" s="85">
+      <c r="K5" s="67">
         <v>0</v>
       </c>
-      <c r="L5" s="87">
+      <c r="L5" s="69">
         <v>0</v>
       </c>
     </row>
@@ -6089,31 +6584,31 @@
       <c r="C6" s="42">
         <v>245</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="72">
         <v>2</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="67">
         <v>1984</v>
       </c>
-      <c r="F6" s="85">
+      <c r="F6" s="67">
         <v>4</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="61">
         <v>16.5833333333333</v>
       </c>
-      <c r="H6" s="88">
+      <c r="H6" s="70">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I6" s="68">
         <v>2001</v>
       </c>
-      <c r="J6" s="89">
+      <c r="J6" s="71">
         <v>1</v>
       </c>
-      <c r="K6" s="85">
+      <c r="K6" s="67">
         <v>1</v>
       </c>
-      <c r="L6" s="87">
+      <c r="L6" s="69">
         <v>1</v>
       </c>
     </row>
@@ -6121,31 +6616,31 @@
       <c r="C7" s="42">
         <v>245</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="72">
         <v>6</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="67">
         <v>1984</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F7" s="67">
         <v>4</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="61">
         <v>16.5833333333333</v>
       </c>
-      <c r="H7" s="88">
+      <c r="H7" s="70">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I7" s="86">
+      <c r="I7" s="68">
         <v>2002</v>
       </c>
-      <c r="J7" s="89">
+      <c r="J7" s="71">
         <v>2</v>
       </c>
-      <c r="K7" s="85">
+      <c r="K7" s="67">
         <v>4</v>
       </c>
-      <c r="L7" s="87">
+      <c r="L7" s="69">
         <v>8</v>
       </c>
     </row>
@@ -6153,31 +6648,31 @@
       <c r="C8" s="42">
         <v>245</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="72">
         <v>6</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="67">
         <v>1984</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="67">
         <v>4</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="61">
         <v>16.5833333333333</v>
       </c>
-      <c r="H8" s="88">
+      <c r="H8" s="70">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I8" s="86">
+      <c r="I8" s="68">
         <v>2003</v>
       </c>
-      <c r="J8" s="89">
+      <c r="J8" s="71">
         <v>3</v>
       </c>
-      <c r="K8" s="85">
+      <c r="K8" s="67">
         <v>9</v>
       </c>
-      <c r="L8" s="87">
+      <c r="L8" s="69">
         <v>27</v>
       </c>
     </row>
@@ -6185,31 +6680,31 @@
       <c r="C9" s="42">
         <v>245</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="72">
         <v>2</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="67">
         <v>1984</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="67">
         <v>4</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="61">
         <v>16.5833333333333</v>
       </c>
-      <c r="H9" s="88">
+      <c r="H9" s="70">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I9" s="86">
+      <c r="I9" s="68">
         <v>2004</v>
       </c>
-      <c r="J9" s="89">
+      <c r="J9" s="71">
         <v>4</v>
       </c>
-      <c r="K9" s="85">
+      <c r="K9" s="67">
         <v>16</v>
       </c>
-      <c r="L9" s="87">
+      <c r="L9" s="69">
         <v>64</v>
       </c>
     </row>
@@ -6217,31 +6712,31 @@
       <c r="C10" s="42">
         <v>245</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="72">
         <v>6</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="67">
         <v>1984</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="67">
         <v>4</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="61">
         <v>16.5833333333333</v>
       </c>
-      <c r="H10" s="88">
+      <c r="H10" s="70">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I10" s="68">
         <v>2005</v>
       </c>
-      <c r="J10" s="89">
+      <c r="J10" s="71">
         <v>5</v>
       </c>
-      <c r="K10" s="85">
+      <c r="K10" s="67">
         <v>25</v>
       </c>
-      <c r="L10" s="87">
+      <c r="L10" s="69">
         <v>125</v>
       </c>
     </row>
@@ -6249,31 +6744,31 @@
       <c r="C11" s="42">
         <v>245</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="72">
         <v>6</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="67">
         <v>1984</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="67">
         <v>4</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="61">
         <v>16.5833333333333</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="70">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I11" s="86">
+      <c r="I11" s="68">
         <v>2006</v>
       </c>
-      <c r="J11" s="89">
+      <c r="J11" s="71">
         <v>6</v>
       </c>
-      <c r="K11" s="85">
+      <c r="K11" s="67">
         <v>36</v>
       </c>
-      <c r="L11" s="87">
+      <c r="L11" s="69">
         <v>216</v>
       </c>
     </row>
@@ -6281,31 +6776,31 @@
       <c r="C12" s="42">
         <v>245</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="72">
         <v>7</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="67">
         <v>1984</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="67">
         <v>4</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G12" s="61">
         <v>16.5833333333333</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="70">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I12" s="86">
+      <c r="I12" s="68">
         <v>2007</v>
       </c>
-      <c r="J12" s="89">
+      <c r="J12" s="71">
         <v>7</v>
       </c>
-      <c r="K12" s="85">
+      <c r="K12" s="67">
         <v>49</v>
       </c>
-      <c r="L12" s="87">
+      <c r="L12" s="69">
         <v>343</v>
       </c>
     </row>
@@ -6313,31 +6808,31 @@
       <c r="C13" s="42">
         <v>245</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="72">
         <v>6</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="67">
         <v>1984</v>
       </c>
-      <c r="F13" s="85">
+      <c r="F13" s="67">
         <v>4</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="61">
         <v>16.5833333333333</v>
       </c>
-      <c r="H13" s="88">
+      <c r="H13" s="70">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I13" s="86">
+      <c r="I13" s="68">
         <v>2008</v>
       </c>
-      <c r="J13" s="89">
+      <c r="J13" s="71">
         <v>8</v>
       </c>
-      <c r="K13" s="85">
+      <c r="K13" s="67">
         <v>64</v>
       </c>
-      <c r="L13" s="87">
+      <c r="L13" s="69">
         <v>512</v>
       </c>
     </row>
@@ -6345,31 +6840,31 @@
       <c r="C14" s="42">
         <v>245</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="72">
         <v>2</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="67">
         <v>1984</v>
       </c>
-      <c r="F14" s="85">
+      <c r="F14" s="67">
         <v>4</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="61">
         <v>16.5833333333333</v>
       </c>
-      <c r="H14" s="88">
+      <c r="H14" s="70">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I14" s="86">
+      <c r="I14" s="68">
         <v>2009</v>
       </c>
-      <c r="J14" s="89">
+      <c r="J14" s="71">
         <v>9</v>
       </c>
-      <c r="K14" s="85">
+      <c r="K14" s="67">
         <v>81</v>
       </c>
-      <c r="L14" s="87">
+      <c r="L14" s="69">
         <v>729</v>
       </c>
     </row>
@@ -6377,31 +6872,31 @@
       <c r="C15" s="42">
         <v>245</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D15" s="72">
         <v>6</v>
       </c>
-      <c r="E15" s="85">
+      <c r="E15" s="67">
         <v>1984</v>
       </c>
-      <c r="F15" s="85">
+      <c r="F15" s="67">
         <v>4</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="61">
         <v>16.5833333333333</v>
       </c>
-      <c r="H15" s="88">
+      <c r="H15" s="70">
         <v>0.58333333333329995</v>
       </c>
-      <c r="I15" s="86">
+      <c r="I15" s="68">
         <v>2010</v>
       </c>
-      <c r="J15" s="89">
+      <c r="J15" s="71">
         <v>10</v>
       </c>
-      <c r="K15" s="85">
+      <c r="K15" s="67">
         <v>100</v>
       </c>
-      <c r="L15" s="87">
+      <c r="L15" s="69">
         <v>1000</v>
       </c>
     </row>
@@ -6423,161 +6918,161 @@
       <c r="C17" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="90" t="s">
         <v>316</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
       <c r="J17" s="48"/>
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
     </row>
     <row r="18" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
     </row>
     <row r="19" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="96" t="s">
         <v>327</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
     </row>
     <row r="20" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="76" t="s">
         <v>319</v>
       </c>
-      <c r="D20" s="82" t="s">
+      <c r="D20" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
     </row>
     <row r="21" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="76" t="s">
         <v>312</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="96" t="s">
         <v>328</v>
       </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
     </row>
     <row r="22" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="95" t="s">
+      <c r="C22" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="87" t="s">
         <v>329</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
     </row>
     <row r="23" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="76" t="s">
         <v>313</v>
       </c>
-      <c r="D23" s="82" t="s">
+      <c r="D23" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
     </row>
     <row r="24" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="87" t="s">
         <v>331</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
     </row>
     <row r="25" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="64" t="s">
         <v>320</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="96" t="s">
         <v>332</v>
       </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
     </row>
     <row r="26" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="64" t="s">
         <v>321</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="96" t="s">
         <v>333</v>
       </c>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
     </row>
     <row r="27" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
@@ -6593,47 +7088,57 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="D23:L23"/>
     <mergeCell ref="D32:I32"/>
     <mergeCell ref="D33:I33"/>
     <mergeCell ref="D24:L24"/>
@@ -6642,16 +7147,6 @@
     <mergeCell ref="D29:I29"/>
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
